--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_19_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3542084.061298234</v>
+        <v>-3542801.297913713</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4950248.695730075</v>
+        <v>4950248.695730078</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.1078504188222</v>
+        <v>241.1078504188221</v>
       </c>
       <c r="C11" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>220.1004714210319</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8426089909374</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>262.3409051157628</v>
       </c>
       <c r="H11" t="n">
         <v>174.2835417775414</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.53425353909798</v>
+        <v>22.53425353909794</v>
       </c>
       <c r="T11" t="n">
-        <v>70.46388924261854</v>
+        <v>70.46388924261851</v>
       </c>
       <c r="U11" t="n">
-        <v>14.99841315345323</v>
+        <v>103.2926861902831</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>209.9143271369581</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>130.5127424989233</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.6111831659036</v>
+        <v>240.6111831659035</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>157.8252483534483</v>
+        <v>8.829994649431455</v>
       </c>
       <c r="C12" t="n">
-        <v>160.0866360314548</v>
+        <v>11.09138232743803</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>27.98822083382306</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>69.31270170917429</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U12" t="n">
         <v>216.28848525876</v>
@@ -1512,10 +1512,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>46.94256453696653</v>
       </c>
       <c r="Y12" t="n">
-        <v>190.5961130869169</v>
+        <v>41.60085938290013</v>
       </c>
     </row>
     <row r="13">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.72456129351923</v>
+        <v>32.7245612935192</v>
       </c>
       <c r="C13" t="n">
-        <v>18.92455613891971</v>
+        <v>18.92455613891968</v>
       </c>
       <c r="D13" t="n">
-        <v>2.545920536498102</v>
+        <v>2.545920536498073</v>
       </c>
       <c r="E13" t="n">
-        <v>1.493670392277551</v>
+        <v>1.493670392277522</v>
       </c>
       <c r="F13" t="n">
-        <v>1.96059472046386</v>
+        <v>1.960594720463831</v>
       </c>
       <c r="G13" t="n">
-        <v>17.96311329697626</v>
+        <v>17.96311329697623</v>
       </c>
       <c r="H13" t="n">
-        <v>6.363700576783401</v>
+        <v>6.363700576783359</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.83398394224582</v>
+        <v>57.83398394224578</v>
       </c>
       <c r="T13" t="n">
-        <v>80.68894132961883</v>
+        <v>80.6889413296188</v>
       </c>
       <c r="U13" t="n">
         <v>135.3082370038742</v>
@@ -1591,10 +1591,10 @@
         <v>134.2995837637581</v>
       </c>
       <c r="X13" t="n">
-        <v>79.9446857595612</v>
+        <v>79.94468575956117</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.81955351562888</v>
+        <v>70.81955351562885</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.1078504188222</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>229.1191673765039</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>241.8426089909374</v>
       </c>
       <c r="F14" t="n">
-        <v>43.74883504598094</v>
+        <v>261.0144250789145</v>
       </c>
       <c r="G14" t="n">
-        <v>262.3409051157628</v>
+        <v>262.3409051157629</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>174.2835417775414</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.53425353909798</v>
+        <v>22.53425353909796</v>
       </c>
       <c r="T14" t="n">
-        <v>70.46388924261854</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>103.2926861902832</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>53.91673207699355</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>209.9143271369582</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>229.2145853697048</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.6111831659036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1692,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>85.64458737588338</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -1701,10 +1701,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H15" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T15" t="n">
-        <v>83.21931976443486</v>
+        <v>36.49439094626078</v>
       </c>
       <c r="U15" t="n">
-        <v>67.29323155474323</v>
+        <v>216.28848525876</v>
       </c>
       <c r="V15" t="n">
-        <v>77.11641262213257</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>89.90745637500626</v>
@@ -1777,10 +1777,10 @@
         <v>1.96059472046386</v>
       </c>
       <c r="G16" t="n">
-        <v>17.96311329697626</v>
+        <v>17.96311329697625</v>
       </c>
       <c r="H16" t="n">
-        <v>6.363700576783389</v>
+        <v>6.363700576783401</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>57.83398394224582</v>
       </c>
       <c r="T16" t="n">
-        <v>80.68894132961883</v>
+        <v>80.68894132961881</v>
       </c>
       <c r="U16" t="n">
         <v>135.3082370038742</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145.9083003675343</v>
+        <v>145.9083003675344</v>
       </c>
       <c r="C17" t="n">
-        <v>133.9196173252156</v>
+        <v>133.9196173252161</v>
       </c>
       <c r="D17" t="n">
-        <v>124.900921369744</v>
+        <v>124.9009213697441</v>
       </c>
       <c r="E17" t="n">
-        <v>146.6430589396495</v>
+        <v>146.6430589396496</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8148750276267</v>
+        <v>165.8148750276268</v>
       </c>
       <c r="G17" t="n">
-        <v>167.141355064475</v>
+        <v>167.1413550644751</v>
       </c>
       <c r="H17" t="n">
-        <v>79.08399172625349</v>
+        <v>79.0839917262536</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>8.093136138995268</v>
+        <v>8.093136138995391</v>
       </c>
       <c r="V17" t="n">
-        <v>89.41467760771337</v>
+        <v>89.41467760771349</v>
       </c>
       <c r="W17" t="n">
-        <v>114.7147770856703</v>
+        <v>114.7147770856704</v>
       </c>
       <c r="X17" t="n">
-        <v>134.0150353184169</v>
+        <v>134.015035318417</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.4116331146157</v>
+        <v>145.4116331146158</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
         <v>160.0866360314548</v>
@@ -1932,10 +1932,10 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>105.490985934177</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>39.0290193539351</v>
+        <v>38.8375415153176</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>152.6390735213022</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.1298405451828</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2044,31 +2044,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.36025740485482</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>206.8292376462626</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.1086869525863</v>
+        <v>40.10868695258642</v>
       </c>
       <c r="V19" t="n">
-        <v>13.93314764185692</v>
+        <v>13.93314764185703</v>
       </c>
       <c r="W19" t="n">
-        <v>39.10003371247018</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>167.141355064475</v>
       </c>
       <c r="H20" t="n">
-        <v>79.08399172625349</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>8.093136138995268</v>
+        <v>8.093136138995305</v>
       </c>
       <c r="V20" t="n">
-        <v>89.41467760771337</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W20" t="n">
         <v>114.7147770856703</v>
@@ -2166,19 +2166,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>88.5923258166596</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H21" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>56.52047122575468</v>
+        <v>22.87407597237674</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.958367000993</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,25 +2281,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.36025740485482</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R22" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.8292376462626</v>
+        <v>93.90326379239204</v>
       </c>
       <c r="T22" t="n">
-        <v>14.47621103039306</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U22" t="n">
-        <v>40.1086869525863</v>
+        <v>40.10868695258633</v>
       </c>
       <c r="V22" t="n">
-        <v>13.93314764185692</v>
+        <v>13.93314764185695</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>167.141355064475</v>
       </c>
       <c r="H23" t="n">
-        <v>79.08399172625349</v>
+        <v>79.08399172625352</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,10 +2372,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>8.093136138995277</v>
+        <v>8.093136138995295</v>
       </c>
       <c r="V23" t="n">
-        <v>89.41467760771337</v>
+        <v>89.4146776077134</v>
       </c>
       <c r="W23" t="n">
         <v>114.7147770856703</v>
@@ -2409,7 +2409,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>78.22596101495579</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.0290193539351</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S24" t="n">
-        <v>145.2410726443114</v>
+        <v>22.42274698164548</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4896446502776</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>216.28848525876</v>
@@ -2460,10 +2460,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2476,10 +2476,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,25 +2518,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.36025740485482</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R25" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>54.09624240078873</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6841950336356</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>40.1086869525863</v>
+        <v>40.10868695258633</v>
       </c>
       <c r="V25" t="n">
-        <v>13.93314764185692</v>
+        <v>154.2540228123709</v>
       </c>
       <c r="W25" t="n">
-        <v>39.10003371247018</v>
+        <v>39.10003371247021</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I26" t="n">
-        <v>46.57653758629993</v>
+        <v>46.57653758629991</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702090997</v>
       </c>
       <c r="T26" t="n">
         <v>118.3398427244305</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>39.0290193539351</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S27" t="n">
         <v>145.2410726443114</v>
@@ -2728,10 +2728,10 @@
         <v>65.83906677878824</v>
       </c>
       <c r="H28" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I28" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.66887443723274</v>
+        <v>34.66887443723272</v>
       </c>
       <c r="S28" t="n">
         <v>105.7099374240578</v>
@@ -2810,7 +2810,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I29" t="n">
-        <v>46.57653758629993</v>
+        <v>46.57653758629989</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.41020702090998</v>
+        <v>70.41020702090994</v>
       </c>
       <c r="T29" t="n">
         <v>118.3398427244305</v>
       </c>
       <c r="U29" t="n">
-        <v>151.1686396720952</v>
+        <v>151.1686396720951</v>
       </c>
       <c r="V29" t="n">
         <v>232.4901811408133</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>39.0290193539351</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S30" t="n">
         <v>145.2410726443114</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.60051477533122</v>
+        <v>80.60051477533121</v>
       </c>
       <c r="C31" t="n">
-        <v>66.8005096207317</v>
+        <v>66.80050962073169</v>
       </c>
       <c r="D31" t="n">
-        <v>50.42187401831009</v>
+        <v>50.42187401831008</v>
       </c>
       <c r="E31" t="n">
-        <v>49.36962387408954</v>
+        <v>49.36962387408953</v>
       </c>
       <c r="F31" t="n">
-        <v>49.83654820227585</v>
+        <v>49.83654820227584</v>
       </c>
       <c r="G31" t="n">
-        <v>65.83906677878824</v>
+        <v>65.83906677878822</v>
       </c>
       <c r="H31" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859538</v>
       </c>
       <c r="I31" t="n">
-        <v>33.45639417554679</v>
+        <v>33.45639417554675</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.66887443723274</v>
+        <v>34.6688744372327</v>
       </c>
       <c r="S31" t="n">
         <v>105.7099374240578</v>
@@ -3035,7 +3035,7 @@
         <v>267.9764249028439</v>
       </c>
       <c r="E32" t="n">
-        <v>289.7185624727494</v>
+        <v>289.7185624727495</v>
       </c>
       <c r="F32" t="n">
         <v>308.8903785607266</v>
@@ -3047,7 +3047,7 @@
         <v>222.1594952593534</v>
       </c>
       <c r="I32" t="n">
-        <v>46.57653758629995</v>
+        <v>46.57653758629993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.41020702090999</v>
+        <v>70.41020702090998</v>
       </c>
       <c r="T32" t="n">
-        <v>118.3398427244305</v>
+        <v>118.3398427244306</v>
       </c>
       <c r="U32" t="n">
         <v>151.1686396720952</v>
@@ -3095,7 +3095,7 @@
         <v>277.0905388515168</v>
       </c>
       <c r="Y32" t="n">
-        <v>288.4871366477155</v>
+        <v>288.4871366477156</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>39.0290193539351</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S33" t="n">
         <v>145.2410726443114</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>80.60051477533123</v>
+        <v>80.60051477533125</v>
       </c>
       <c r="C34" t="n">
-        <v>66.80050962073172</v>
+        <v>66.80050962073173</v>
       </c>
       <c r="D34" t="n">
-        <v>50.42187401831011</v>
+        <v>50.42187401831012</v>
       </c>
       <c r="E34" t="n">
-        <v>49.36962387408956</v>
+        <v>49.36962387408957</v>
       </c>
       <c r="F34" t="n">
-        <v>49.83654820227586</v>
+        <v>49.83654820227588</v>
       </c>
       <c r="G34" t="n">
-        <v>65.83906677878826</v>
+        <v>65.83906677878828</v>
       </c>
       <c r="H34" t="n">
-        <v>54.23965405859539</v>
+        <v>54.23965405859541</v>
       </c>
       <c r="I34" t="n">
-        <v>33.4563941755468</v>
+        <v>33.45639417554681</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>34.66887443723274</v>
+        <v>34.66887443723275</v>
       </c>
       <c r="S34" t="n">
         <v>105.7099374240578</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352057</v>
       </c>
       <c r="U35" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V35" t="n">
         <v>162.0799741199033</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>107.9414387381033</v>
+        <v>145.2410726443114</v>
       </c>
       <c r="T36" t="n">
         <v>185.4896446502776</v>
       </c>
       <c r="U36" t="n">
-        <v>216.28848525876</v>
+        <v>178.9888513525529</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>23.46315531344988</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>38.16390475030658</v>
       </c>
       <c r="J37" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.36025740485482</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S37" t="n">
-        <v>35.29973040314783</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T37" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052086</v>
       </c>
       <c r="U37" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V37" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W37" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X37" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
     <row r="38">
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.92963570352055</v>
+        <v>47.92963570352057</v>
       </c>
       <c r="U38" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V38" t="n">
         <v>162.0799741199033</v>
@@ -3597,7 +3597,7 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H39" t="n">
-        <v>19.47429228221174</v>
+        <v>19.47429228221043</v>
       </c>
       <c r="I39" t="n">
         <v>56.52047122575468</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>39.0290193539351</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S39" t="n">
         <v>145.2410726443114</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.19030775442124</v>
+        <v>16.2225773212287</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.56973555022188</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>35.29973040314783</v>
+        <v>35.29973040314785</v>
       </c>
       <c r="T40" t="n">
-        <v>58.15468779052083</v>
+        <v>58.15468779052086</v>
       </c>
       <c r="U40" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V40" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W40" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X40" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
     <row r="41">
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>47.92963570352056</v>
+        <v>47.92963570352057</v>
       </c>
       <c r="U41" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V41" t="n">
         <v>162.0799741199033</v>
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>50.78790158932885</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H42" t="n">
-        <v>95.80294554235505</v>
+        <v>58.50331163614707</v>
       </c>
       <c r="I42" t="n">
-        <v>56.5204712257547</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>39.02901935393515</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>145.2410726443114</v>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>42.63581932673289</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>40.21324716010348</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.36025740485488</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>35.29973040314783</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T43" t="n">
-        <v>58.15468779052084</v>
+        <v>58.15468779052086</v>
       </c>
       <c r="U43" t="n">
-        <v>112.7739834647762</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V43" t="n">
-        <v>86.59844415404683</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W43" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X43" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.69620514575963</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
     <row r="44">
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>47.92963570352056</v>
+        <v>47.92963570352058</v>
       </c>
       <c r="U44" t="n">
-        <v>80.75843265118519</v>
+        <v>80.75843265118522</v>
       </c>
       <c r="V44" t="n">
         <v>162.0799741199033</v>
@@ -4071,10 +4071,10 @@
         <v>127.1165548494722</v>
       </c>
       <c r="H45" t="n">
-        <v>95.80294554235505</v>
+        <v>75.99476350796641</v>
       </c>
       <c r="I45" t="n">
-        <v>56.5204712257547</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>39.02901935393515</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S45" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T45" t="n">
-        <v>109.1609913901346</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U45" t="n">
         <v>216.28848525876</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.19030775442124</v>
+        <v>10.19030775442127</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4177,31 +4177,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>35.29973040314783</v>
+        <v>98.50920854851468</v>
       </c>
       <c r="T46" t="n">
-        <v>58.15468779052084</v>
+        <v>58.15468779052086</v>
       </c>
       <c r="U46" t="n">
-        <v>284.303490707891</v>
+        <v>112.7739834647763</v>
       </c>
       <c r="V46" t="n">
-        <v>144.594520885634</v>
+        <v>86.59844415404686</v>
       </c>
       <c r="W46" t="n">
         <v>111.7653302246601</v>
       </c>
       <c r="X46" t="n">
-        <v>57.41043222046321</v>
+        <v>57.41043222046324</v>
       </c>
       <c r="Y46" t="n">
-        <v>48.28529997653089</v>
+        <v>48.28529997653092</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>904.081737122668</v>
+        <v>471.0298758371015</v>
       </c>
       <c r="C11" t="n">
-        <v>672.6482347221589</v>
+        <v>471.0298758371015</v>
       </c>
       <c r="D11" t="n">
-        <v>450.3245262160661</v>
+        <v>471.0298758371015</v>
       </c>
       <c r="E11" t="n">
-        <v>206.0390625888567</v>
+        <v>471.0298758371015</v>
       </c>
       <c r="F11" t="n">
-        <v>206.0390625888567</v>
+        <v>471.0298758371015</v>
       </c>
       <c r="G11" t="n">
         <v>206.0390625888567</v>
       </c>
       <c r="H11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I11" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J11" t="n">
-        <v>152.9789828377824</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K11" t="n">
-        <v>469.5331892888867</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="L11" t="n">
-        <v>840.7223166067208</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.212869005931</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.212869005931</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="O11" t="n">
-        <v>1185.212869005931</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P11" t="n">
-        <v>1499.754049769027</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R11" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S11" t="n">
-        <v>1476.992177507312</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T11" t="n">
-        <v>1405.816531807697</v>
+        <v>1405.816531807698</v>
       </c>
       <c r="U11" t="n">
-        <v>1390.666619531482</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="V11" t="n">
-        <v>1390.666619531482</v>
+        <v>1301.480485150846</v>
       </c>
       <c r="W11" t="n">
-        <v>1390.666619531482</v>
+        <v>1089.445811275131</v>
       </c>
       <c r="X11" t="n">
-        <v>1390.666619531482</v>
+        <v>957.6147582459154</v>
       </c>
       <c r="Y11" t="n">
-        <v>1147.625020374003</v>
+        <v>714.573159088437</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>191.6987537544258</v>
+        <v>486.4258232665598</v>
       </c>
       <c r="C12" t="n">
-        <v>29.99508099538054</v>
+        <v>475.2224067741981</v>
       </c>
       <c r="D12" t="n">
-        <v>29.99508099538054</v>
+        <v>475.2224067741981</v>
       </c>
       <c r="E12" t="n">
-        <v>29.99508099538054</v>
+        <v>446.9514766390233</v>
       </c>
       <c r="F12" t="n">
-        <v>29.99508099538054</v>
+        <v>312.2576785888976</v>
       </c>
       <c r="G12" t="n">
-        <v>29.99508099538054</v>
+        <v>183.8571181348854</v>
       </c>
       <c r="H12" t="n">
-        <v>29.99508099538054</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I12" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J12" t="n">
         <v>120.6157572122717</v>
       </c>
       <c r="K12" t="n">
-        <v>402.007545711735</v>
+        <v>120.6157572122717</v>
       </c>
       <c r="L12" t="n">
-        <v>566.293332292018</v>
+        <v>491.8048845301061</v>
       </c>
       <c r="M12" t="n">
-        <v>566.293332292018</v>
+        <v>491.8048845301061</v>
       </c>
       <c r="N12" t="n">
-        <v>566.293332292018</v>
+        <v>566.2933322920182</v>
       </c>
       <c r="O12" t="n">
-        <v>937.4824596098522</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P12" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q12" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R12" t="n">
-        <v>1499.754049769027</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S12" t="n">
-        <v>1499.754049769027</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="T12" t="n">
-        <v>1429.74121975976</v>
+        <v>1272.967520471843</v>
       </c>
       <c r="U12" t="n">
-        <v>1211.268002326669</v>
+        <v>1054.494303038752</v>
       </c>
       <c r="V12" t="n">
-        <v>982.8723797750033</v>
+        <v>826.0986804870863</v>
       </c>
       <c r="W12" t="n">
-        <v>741.5565110083134</v>
+        <v>584.7828117203964</v>
       </c>
       <c r="X12" t="n">
-        <v>543.6395228861079</v>
+        <v>537.3660798648746</v>
       </c>
       <c r="Y12" t="n">
-        <v>351.1181965356867</v>
+        <v>495.345009781137</v>
       </c>
     </row>
     <row r="13">
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>79.74412711853051</v>
+        <v>79.74412711853076</v>
       </c>
       <c r="C13" t="n">
-        <v>60.62841384689455</v>
+        <v>60.62841384689471</v>
       </c>
       <c r="D13" t="n">
-        <v>58.05677694134113</v>
+        <v>58.0567769413411</v>
       </c>
       <c r="E13" t="n">
-        <v>56.54801896934359</v>
+        <v>56.5480189693436</v>
       </c>
       <c r="F13" t="n">
-        <v>54.56762026180434</v>
+        <v>54.56762026180438</v>
       </c>
       <c r="G13" t="n">
-        <v>36.42306137596984</v>
+        <v>36.42306137596981</v>
       </c>
       <c r="H13" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I13" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538036</v>
       </c>
       <c r="J13" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538036</v>
       </c>
       <c r="K13" t="n">
-        <v>94.9058890789962</v>
+        <v>94.90588907899604</v>
       </c>
       <c r="L13" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210046</v>
       </c>
       <c r="M13" t="n">
-        <v>395.8076110331838</v>
+        <v>395.8076110331837</v>
       </c>
       <c r="N13" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729186</v>
       </c>
       <c r="O13" t="n">
-        <v>692.0159524237212</v>
+        <v>692.015952423721</v>
       </c>
       <c r="P13" t="n">
-        <v>787.5746769178752</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="Q13" t="n">
-        <v>787.5746769178752</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="R13" t="n">
-        <v>787.5746769178752</v>
+        <v>787.5746769178751</v>
       </c>
       <c r="S13" t="n">
         <v>729.1565113196471</v>
@@ -5230,19 +5230,19 @@
         <v>647.6525301786179</v>
       </c>
       <c r="U13" t="n">
-        <v>510.9775433060175</v>
+        <v>510.9775433060177</v>
       </c>
       <c r="V13" t="n">
-        <v>400.7424951311237</v>
+        <v>400.742495131124</v>
       </c>
       <c r="W13" t="n">
-        <v>265.0863499152066</v>
+        <v>265.0863499152067</v>
       </c>
       <c r="X13" t="n">
-        <v>184.334142077266</v>
+        <v>184.3341420772662</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.7992395362267</v>
+        <v>112.7992395362269</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>814.8956027420318</v>
+        <v>978.9662738874575</v>
       </c>
       <c r="C14" t="n">
-        <v>583.4621003415232</v>
+        <v>978.9662738874575</v>
       </c>
       <c r="D14" t="n">
-        <v>583.4621003415232</v>
+        <v>978.9662738874575</v>
       </c>
       <c r="E14" t="n">
-        <v>339.1766367143137</v>
+        <v>734.680810260248</v>
       </c>
       <c r="F14" t="n">
-        <v>294.9858942436259</v>
+        <v>471.0298758371019</v>
       </c>
       <c r="G14" t="n">
-        <v>29.99508099538054</v>
+        <v>206.0390625888567</v>
       </c>
       <c r="H14" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I14" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J14" t="n">
-        <v>29.99508099538054</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K14" t="n">
-        <v>29.99508099538054</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="L14" t="n">
-        <v>401.1842083132148</v>
+        <v>524.1681101556168</v>
       </c>
       <c r="M14" t="n">
-        <v>772.373335631049</v>
+        <v>895.3572374734511</v>
       </c>
       <c r="N14" t="n">
-        <v>1143.562462948883</v>
+        <v>1266.546364791285</v>
       </c>
       <c r="O14" t="n">
-        <v>1499.754049769027</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="P14" t="n">
-        <v>1499.754049769027</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q14" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R14" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S14" t="n">
-        <v>1476.992177507312</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="T14" t="n">
-        <v>1405.816531807697</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="U14" t="n">
-        <v>1301.480485150846</v>
+        <v>1476.992177507313</v>
       </c>
       <c r="V14" t="n">
-        <v>1301.480485150846</v>
+        <v>1422.530831974996</v>
       </c>
       <c r="W14" t="n">
-        <v>1301.480485150846</v>
+        <v>1210.496158099281</v>
       </c>
       <c r="X14" t="n">
-        <v>1301.480485150846</v>
+        <v>978.9662738874575</v>
       </c>
       <c r="Y14" t="n">
-        <v>1058.438885993367</v>
+        <v>978.9662738874575</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>894.5217963509853</v>
+        <v>680.1414334864157</v>
       </c>
       <c r="C15" t="n">
-        <v>732.81812359194</v>
+        <v>518.4377607273705</v>
       </c>
       <c r="D15" t="n">
-        <v>593.979486582152</v>
+        <v>379.5991237175825</v>
       </c>
       <c r="E15" t="n">
-        <v>446.9514766390233</v>
+        <v>293.0894394995185</v>
       </c>
       <c r="F15" t="n">
-        <v>312.2576785888976</v>
+        <v>158.3956414493929</v>
       </c>
       <c r="G15" t="n">
-        <v>183.8571181348854</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H15" t="n">
-        <v>87.08646607190043</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I15" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J15" t="n">
         <v>120.6157572122717</v>
@@ -5361,46 +5361,46 @@
         <v>402.007545711735</v>
       </c>
       <c r="L15" t="n">
-        <v>566.293332292018</v>
+        <v>773.1966730295694</v>
       </c>
       <c r="M15" t="n">
-        <v>937.4824596098522</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="N15" t="n">
-        <v>937.4824596098522</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="O15" t="n">
-        <v>937.4824596098522</v>
+        <v>937.4824596098526</v>
       </c>
       <c r="P15" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q15" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R15" t="n">
-        <v>1460.330797896366</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S15" t="n">
-        <v>1313.622643710193</v>
+        <v>1353.045895582855</v>
       </c>
       <c r="T15" t="n">
-        <v>1229.562724756218</v>
+        <v>1316.182874425016</v>
       </c>
       <c r="U15" t="n">
-        <v>1161.589763589811</v>
+        <v>1097.709656991925</v>
       </c>
       <c r="V15" t="n">
-        <v>1083.694397304828</v>
+        <v>869.3140344402586</v>
       </c>
       <c r="W15" t="n">
-        <v>992.8787848048219</v>
+        <v>778.4984219402523</v>
       </c>
       <c r="X15" t="n">
-        <v>945.4620529493001</v>
+        <v>731.0816900847306</v>
       </c>
       <c r="Y15" t="n">
-        <v>903.4409828655625</v>
+        <v>689.060620000993</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>79.74412711853091</v>
+        <v>79.74412711853057</v>
       </c>
       <c r="C16" t="n">
-        <v>60.62841384689484</v>
+        <v>60.6284138468946</v>
       </c>
       <c r="D16" t="n">
         <v>58.05677694134121</v>
       </c>
       <c r="E16" t="n">
-        <v>56.54801896934368</v>
+        <v>56.54801896934367</v>
       </c>
       <c r="F16" t="n">
-        <v>54.56762026180443</v>
+        <v>54.56762026180441</v>
       </c>
       <c r="G16" t="n">
-        <v>36.42306137596982</v>
+        <v>36.42306137596985</v>
       </c>
       <c r="H16" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I16" t="n">
-        <v>29.99508099538102</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J16" t="n">
-        <v>29.99508099538102</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K16" t="n">
-        <v>94.90588907899667</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L16" t="n">
-        <v>235.5746640210052</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M16" t="n">
-        <v>395.8076110331842</v>
+        <v>395.807611033184</v>
       </c>
       <c r="N16" t="n">
-        <v>555.4650341729192</v>
+        <v>555.465034172919</v>
       </c>
       <c r="O16" t="n">
-        <v>692.0159524237216</v>
+        <v>692.0159524237214</v>
       </c>
       <c r="P16" t="n">
-        <v>787.5746769178755</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="Q16" t="n">
-        <v>787.5746769178755</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="R16" t="n">
-        <v>787.5746769178755</v>
+        <v>787.5746769178754</v>
       </c>
       <c r="S16" t="n">
-        <v>729.1565113196474</v>
+        <v>729.1565113196473</v>
       </c>
       <c r="T16" t="n">
-        <v>647.6525301786182</v>
+        <v>647.6525301786178</v>
       </c>
       <c r="U16" t="n">
-        <v>510.977543306018</v>
+        <v>510.9775433060176</v>
       </c>
       <c r="V16" t="n">
-        <v>400.7424951311243</v>
+        <v>400.7424951311238</v>
       </c>
       <c r="W16" t="n">
-        <v>265.086349915207</v>
+        <v>265.0863499152067</v>
       </c>
       <c r="X16" t="n">
-        <v>184.3341420772664</v>
+        <v>184.3341420772661</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.7992395362271</v>
+        <v>112.7992395362268</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>855.7565147862537</v>
+        <v>855.7565147862543</v>
       </c>
       <c r="C17" t="n">
-        <v>720.4841740537126</v>
+        <v>720.4841740537129</v>
       </c>
       <c r="D17" t="n">
-        <v>594.3216272155873</v>
+        <v>594.3216272155876</v>
       </c>
       <c r="E17" t="n">
-        <v>446.1973252563454</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F17" t="n">
         <v>278.7075525011669</v>
       </c>
       <c r="G17" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208893</v>
       </c>
       <c r="H17" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I17" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J17" t="n">
-        <v>152.9789828377824</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K17" t="n">
-        <v>469.5331892888867</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="L17" t="n">
         <v>654.7204880487625</v>
@@ -5534,28 +5534,28 @@
         <v>1340.450796129693</v>
       </c>
       <c r="Q17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T17" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U17" t="n">
-        <v>1491.579164780143</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V17" t="n">
-        <v>1401.261308610736</v>
+        <v>1401.261308610737</v>
       </c>
       <c r="W17" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X17" t="n">
-        <v>1150.019073859132</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y17" t="n">
         <v>1003.138636369622</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>641.2133372325261</v>
+        <v>669.3505838339881</v>
       </c>
       <c r="C18" t="n">
-        <v>479.5096644734808</v>
+        <v>507.6469110749428</v>
       </c>
       <c r="D18" t="n">
-        <v>340.6710274636929</v>
+        <v>368.8082740651549</v>
       </c>
       <c r="E18" t="n">
-        <v>193.6430175205641</v>
+        <v>221.7802641220261</v>
       </c>
       <c r="F18" t="n">
-        <v>193.6430175205641</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="G18" t="n">
         <v>87.08646607190043</v>
@@ -5589,7 +5589,7 @@
         <v>87.08646607190043</v>
       </c>
       <c r="I18" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J18" t="n">
         <v>120.6157572122717</v>
@@ -5598,46 +5598,46 @@
         <v>402.007545711735</v>
       </c>
       <c r="L18" t="n">
-        <v>773.1966730295692</v>
+        <v>558.5760106698538</v>
       </c>
       <c r="M18" t="n">
-        <v>773.1966730295692</v>
+        <v>929.7651379876881</v>
       </c>
       <c r="N18" t="n">
-        <v>773.1966730295692</v>
+        <v>929.7651379876881</v>
       </c>
       <c r="O18" t="n">
-        <v>937.4824596098522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="P18" t="n">
-        <v>1300.954265305522</v>
+        <v>1300.954265305523</v>
       </c>
       <c r="Q18" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R18" t="n">
-        <v>1460.330797896366</v>
+        <v>1460.524209854565</v>
       </c>
       <c r="S18" t="n">
-        <v>1460.330797896366</v>
+        <v>1460.524209854565</v>
       </c>
       <c r="T18" t="n">
-        <v>1272.967520471843</v>
+        <v>1460.524209854565</v>
       </c>
       <c r="U18" t="n">
-        <v>1272.967520471843</v>
+        <v>1460.524209854565</v>
       </c>
       <c r="V18" t="n">
-        <v>1272.967520471843</v>
+        <v>1460.524209854565</v>
       </c>
       <c r="W18" t="n">
-        <v>1031.651651705153</v>
+        <v>1219.208341087876</v>
       </c>
       <c r="X18" t="n">
-        <v>833.7346635829473</v>
+        <v>1021.29135296567</v>
       </c>
       <c r="Y18" t="n">
-        <v>641.2133372325261</v>
+        <v>828.770026615249</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>331.8983758901292</v>
+        <v>224.7954049159923</v>
       </c>
       <c r="C19" t="n">
-        <v>331.8983758901292</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="D19" t="n">
-        <v>178.8264827178919</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="E19" t="n">
-        <v>178.8264827178919</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="F19" t="n">
-        <v>178.8264827178919</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="G19" t="n">
-        <v>178.8264827178919</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="H19" t="n">
-        <v>70.6145225712426</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="I19" t="n">
-        <v>70.6145225712426</v>
+        <v>70.61452257124259</v>
       </c>
       <c r="J19" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K19" t="n">
-        <v>94.9058890789962</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L19" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M19" t="n">
-        <v>395.8076110331838</v>
+        <v>395.8076110331839</v>
       </c>
       <c r="N19" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O19" t="n">
-        <v>692.0159524237212</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P19" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q19" t="n">
-        <v>772.0592653978197</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="R19" t="n">
-        <v>634.8994930145494</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="S19" t="n">
-        <v>425.9810711496377</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="T19" t="n">
-        <v>425.9810711496377</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="U19" t="n">
-        <v>385.4672459450051</v>
+        <v>747.0608517132424</v>
       </c>
       <c r="V19" t="n">
-        <v>371.3933594380789</v>
+        <v>732.9869652063161</v>
       </c>
       <c r="W19" t="n">
-        <v>331.8983758901292</v>
+        <v>446.8305637237152</v>
       </c>
       <c r="X19" t="n">
-        <v>331.8983758901292</v>
+        <v>446.8305637237152</v>
       </c>
       <c r="Y19" t="n">
-        <v>331.8983758901292</v>
+        <v>224.7954049159923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,73 +5726,73 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>855.7565147862535</v>
+        <v>855.7565147862542</v>
       </c>
       <c r="C20" t="n">
-        <v>720.4841740537119</v>
+        <v>720.4841740537126</v>
       </c>
       <c r="D20" t="n">
-        <v>594.3216272155867</v>
+        <v>594.3216272155873</v>
       </c>
       <c r="E20" t="n">
-        <v>446.1973252563448</v>
+        <v>446.1973252563454</v>
       </c>
       <c r="F20" t="n">
-        <v>278.7075525011667</v>
+        <v>278.7075525011669</v>
       </c>
       <c r="G20" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H20" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I20" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J20" t="n">
-        <v>152.9789828377824</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K20" t="n">
-        <v>152.9789828377824</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="L20" t="n">
-        <v>152.9789828377824</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="M20" t="n">
-        <v>524.1681101556167</v>
+        <v>840.7223166067211</v>
       </c>
       <c r="N20" t="n">
-        <v>654.7204880487625</v>
+        <v>969.261668811859</v>
       </c>
       <c r="O20" t="n">
-        <v>1025.909615366597</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="P20" t="n">
         <v>1340.450796129693</v>
       </c>
       <c r="Q20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T20" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U20" t="n">
-        <v>1491.579164780143</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V20" t="n">
-        <v>1401.261308610735</v>
+        <v>1401.261308610736</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.387796402988</v>
+        <v>1285.387796402989</v>
       </c>
       <c r="X20" t="n">
-        <v>1150.019073859132</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y20" t="n">
         <v>1003.138636369622</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>708.5804237484499</v>
+        <v>763.7648864563055</v>
       </c>
       <c r="C21" t="n">
-        <v>546.8767509894046</v>
+        <v>602.0612136972602</v>
       </c>
       <c r="D21" t="n">
-        <v>408.0381139796167</v>
+        <v>463.2225766874723</v>
       </c>
       <c r="E21" t="n">
-        <v>408.0381139796167</v>
+        <v>316.1945667443435</v>
       </c>
       <c r="F21" t="n">
-        <v>273.344315929491</v>
+        <v>181.5007686942178</v>
       </c>
       <c r="G21" t="n">
-        <v>183.8571181348854</v>
+        <v>53.10020824020555</v>
       </c>
       <c r="H21" t="n">
-        <v>87.08646607190043</v>
+        <v>53.10020824020555</v>
       </c>
       <c r="I21" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J21" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K21" t="n">
-        <v>402.007545711735</v>
+        <v>311.3868694948438</v>
       </c>
       <c r="L21" t="n">
-        <v>566.293332292018</v>
+        <v>682.5759968126781</v>
       </c>
       <c r="M21" t="n">
-        <v>937.4824596098522</v>
+        <v>765.0931167555234</v>
       </c>
       <c r="N21" t="n">
-        <v>937.4824596098522</v>
+        <v>765.0931167555234</v>
       </c>
       <c r="O21" t="n">
-        <v>937.4824596098522</v>
+        <v>1136.282244073358</v>
       </c>
       <c r="P21" t="n">
-        <v>1300.954265305522</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q21" t="n">
-        <v>1499.754049769027</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R21" t="n">
-        <v>1499.754049769027</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S21" t="n">
-        <v>1499.754049769027</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="T21" t="n">
-        <v>1499.754049769027</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="U21" t="n">
-        <v>1499.754049769027</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="V21" t="n">
-        <v>1499.754049769027</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="W21" t="n">
-        <v>1258.438181002337</v>
+        <v>1313.622643710193</v>
       </c>
       <c r="X21" t="n">
-        <v>1060.521192880132</v>
+        <v>1115.705655587988</v>
       </c>
       <c r="Y21" t="n">
-        <v>867.9998665297109</v>
+        <v>923.1843292375664</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
       <c r="C22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
       <c r="D22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
       <c r="E22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
       <c r="F22" t="n">
-        <v>70.6145225712426</v>
+        <v>198.6398961478988</v>
       </c>
       <c r="G22" t="n">
-        <v>70.6145225712426</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H22" t="n">
-        <v>70.6145225712426</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I22" t="n">
-        <v>70.6145225712426</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J22" t="n">
-        <v>29.99508099538054</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K22" t="n">
-        <v>94.9058890789962</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L22" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M22" t="n">
-        <v>395.8076110331838</v>
+        <v>395.8076110331839</v>
       </c>
       <c r="N22" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O22" t="n">
-        <v>692.0159524237212</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P22" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q22" t="n">
-        <v>772.0592653978197</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="R22" t="n">
-        <v>634.8994930145494</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="S22" t="n">
-        <v>425.9810711496377</v>
+        <v>677.207483789343</v>
       </c>
       <c r="T22" t="n">
-        <v>411.3586357654023</v>
+        <v>445.2032463816303</v>
       </c>
       <c r="U22" t="n">
-        <v>370.8448105607696</v>
+        <v>404.6894211769976</v>
       </c>
       <c r="V22" t="n">
-        <v>356.7709240538435</v>
+        <v>390.6155346700714</v>
       </c>
       <c r="W22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
       <c r="X22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.6145225712426</v>
+        <v>351.1205511221217</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>855.7565147862533</v>
+        <v>855.7565147862541</v>
       </c>
       <c r="C23" t="n">
-        <v>720.4841740537117</v>
+        <v>720.4841740537126</v>
       </c>
       <c r="D23" t="n">
-        <v>594.3216272155869</v>
+        <v>594.3216272155875</v>
       </c>
       <c r="E23" t="n">
-        <v>446.1973252563447</v>
+        <v>446.1973252563455</v>
       </c>
       <c r="F23" t="n">
-        <v>278.7075525011662</v>
+        <v>278.707552501167</v>
       </c>
       <c r="G23" t="n">
-        <v>109.8779009208891</v>
+        <v>109.8779009208892</v>
       </c>
       <c r="H23" t="n">
-        <v>29.99508099538053</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I23" t="n">
-        <v>29.99508099538053</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J23" t="n">
-        <v>152.9789828377824</v>
+        <v>152.9789828377825</v>
       </c>
       <c r="K23" t="n">
-        <v>469.5331892888867</v>
+        <v>469.5331892888868</v>
       </c>
       <c r="L23" t="n">
-        <v>654.7204880487618</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="M23" t="n">
-        <v>654.7204880487618</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="N23" t="n">
-        <v>654.7204880487618</v>
+        <v>654.7204880487625</v>
       </c>
       <c r="O23" t="n">
-        <v>1025.909615366596</v>
+        <v>1025.909615366597</v>
       </c>
       <c r="P23" t="n">
-        <v>1340.450796129692</v>
+        <v>1340.450796129693</v>
       </c>
       <c r="Q23" t="n">
-        <v>1499.754049769026</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R23" t="n">
-        <v>1499.754049769026</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="S23" t="n">
-        <v>1499.754049769026</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="T23" t="n">
-        <v>1499.754049769026</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="U23" t="n">
-        <v>1491.579164780142</v>
+        <v>1491.579164780144</v>
       </c>
       <c r="V23" t="n">
-        <v>1401.261308610735</v>
+        <v>1401.261308610736</v>
       </c>
       <c r="W23" t="n">
         <v>1285.387796402988</v>
       </c>
       <c r="X23" t="n">
-        <v>1150.019073859132</v>
+        <v>1150.019073859133</v>
       </c>
       <c r="Y23" t="n">
-        <v>1003.138636369621</v>
+        <v>1003.138636369622</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>748.3667060713171</v>
+        <v>669.3505838339881</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6630333122719</v>
+        <v>507.6469110749428</v>
       </c>
       <c r="D24" t="n">
-        <v>447.8243963024839</v>
+        <v>368.8082740651549</v>
       </c>
       <c r="E24" t="n">
-        <v>300.7963863593552</v>
+        <v>221.7802641220261</v>
       </c>
       <c r="F24" t="n">
-        <v>166.1025883092295</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="G24" t="n">
-        <v>87.08646607190042</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="H24" t="n">
-        <v>87.08646607190042</v>
+        <v>87.08646607190043</v>
       </c>
       <c r="I24" t="n">
-        <v>29.99508099538053</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J24" t="n">
-        <v>120.6157572122717</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K24" t="n">
-        <v>402.0075457117349</v>
+        <v>311.3868694948438</v>
       </c>
       <c r="L24" t="n">
-        <v>773.196673029569</v>
+        <v>393.9039894376891</v>
       </c>
       <c r="M24" t="n">
-        <v>773.196673029569</v>
+        <v>765.0931167555234</v>
       </c>
       <c r="N24" t="n">
-        <v>773.196673029569</v>
+        <v>1136.282244073358</v>
       </c>
       <c r="O24" t="n">
-        <v>937.4824596098513</v>
+        <v>1136.282244073358</v>
       </c>
       <c r="P24" t="n">
-        <v>1300.954265305521</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="Q24" t="n">
-        <v>1499.754049769026</v>
+        <v>1499.754049769028</v>
       </c>
       <c r="R24" t="n">
-        <v>1460.330797896365</v>
+        <v>1460.330797896366</v>
       </c>
       <c r="S24" t="n">
-        <v>1313.622643710192</v>
+        <v>1437.681558520967</v>
       </c>
       <c r="T24" t="n">
-        <v>1126.259366285669</v>
+        <v>1437.681558520967</v>
       </c>
       <c r="U24" t="n">
-        <v>907.786148852578</v>
+        <v>1219.208341087876</v>
       </c>
       <c r="V24" t="n">
-        <v>907.786148852578</v>
+        <v>1219.208341087876</v>
       </c>
       <c r="W24" t="n">
-        <v>907.786148852578</v>
+        <v>1219.208341087876</v>
       </c>
       <c r="X24" t="n">
-        <v>907.786148852578</v>
+        <v>1021.29135296567</v>
       </c>
       <c r="Y24" t="n">
-        <v>907.786148852578</v>
+        <v>828.770026615249</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.61452257124259</v>
+        <v>352.6829437059375</v>
       </c>
       <c r="C25" t="n">
-        <v>70.61452257124259</v>
+        <v>183.0669741676178</v>
       </c>
       <c r="D25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="E25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="F25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="G25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="H25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="I25" t="n">
-        <v>70.61452257124259</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="J25" t="n">
-        <v>29.99508099538053</v>
+        <v>29.99508099538055</v>
       </c>
       <c r="K25" t="n">
-        <v>94.90588907899618</v>
+        <v>94.90588907899624</v>
       </c>
       <c r="L25" t="n">
-        <v>235.5746640210047</v>
+        <v>235.5746640210048</v>
       </c>
       <c r="M25" t="n">
-        <v>395.8076110331838</v>
+        <v>395.8076110331839</v>
       </c>
       <c r="N25" t="n">
-        <v>555.4650341729188</v>
+        <v>555.4650341729189</v>
       </c>
       <c r="O25" t="n">
-        <v>692.0159524237212</v>
+        <v>692.0159524237213</v>
       </c>
       <c r="P25" t="n">
-        <v>787.5746769178751</v>
+        <v>787.5746769178752</v>
       </c>
       <c r="Q25" t="n">
-        <v>772.0592653978197</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="R25" t="n">
-        <v>634.8994930145494</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="S25" t="n">
-        <v>580.2568239228436</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="T25" t="n">
-        <v>348.2525865151309</v>
+        <v>772.0592653978198</v>
       </c>
       <c r="U25" t="n">
-        <v>307.7387613104983</v>
+        <v>731.5454401931871</v>
       </c>
       <c r="V25" t="n">
-        <v>293.6648748035721</v>
+        <v>575.733295938267</v>
       </c>
       <c r="W25" t="n">
-        <v>254.1698912556224</v>
+        <v>536.2383123903173</v>
       </c>
       <c r="X25" t="n">
-        <v>254.1698912556224</v>
+        <v>536.2383123903173</v>
       </c>
       <c r="Y25" t="n">
-        <v>254.1698912556224</v>
+        <v>536.2383123903173</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740056</v>
       </c>
       <c r="C26" t="n">
-        <v>1530.378656368019</v>
+        <v>1530.37865636802</v>
       </c>
       <c r="D26" t="n">
-        <v>1259.695398890399</v>
+        <v>1259.6953988904</v>
       </c>
       <c r="E26" t="n">
-        <v>967.0503862916621</v>
+        <v>967.0503862916628</v>
       </c>
       <c r="F26" t="n">
-        <v>655.039902896989</v>
+        <v>655.0399028969895</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6895406772164</v>
+        <v>341.6895406772169</v>
       </c>
       <c r="H26" t="n">
         <v>117.2860101122129</v>
       </c>
       <c r="I26" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J26" t="n">
-        <v>293.3310115116682</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K26" t="n">
-        <v>709.9933251827553</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L26" t="n">
-        <v>1198.205951005288</v>
+        <v>1252.784924042173</v>
       </c>
       <c r="M26" t="n">
-        <v>1696.926289792196</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N26" t="n">
-        <v>2282.553723882484</v>
+        <v>2282.553723882485</v>
       </c>
       <c r="O26" t="n">
-        <v>2788.88097443719</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P26" t="n">
-        <v>3203.530262420269</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q26" t="n">
-        <v>3462.941623279586</v>
+        <v>3462.941623279587</v>
       </c>
       <c r="R26" t="n">
-        <v>3511.950122464181</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S26" t="n">
-        <v>3440.828701230939</v>
+        <v>3440.828701230941</v>
       </c>
       <c r="T26" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V26" t="n">
-        <v>2933.759344122516</v>
+        <v>2933.759344122517</v>
       </c>
       <c r="W26" t="n">
         <v>2673.365121275274</v>
       </c>
       <c r="X26" t="n">
-        <v>2393.475688091923</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y26" t="n">
-        <v>2102.074539962918</v>
+        <v>2102.074539962919</v>
       </c>
     </row>
     <row r="27">
@@ -6288,10 +6288,10 @@
         <v>634.2234080360552</v>
       </c>
       <c r="E27" t="n">
-        <v>487.1953980929263</v>
+        <v>487.1953980929264</v>
       </c>
       <c r="F27" t="n">
-        <v>352.5016000428007</v>
+        <v>352.5016000428008</v>
       </c>
       <c r="G27" t="n">
         <v>224.1010395887884</v>
@@ -6300,16 +6300,16 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I27" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J27" t="n">
         <v>160.8596786661748</v>
       </c>
       <c r="K27" t="n">
-        <v>442.251467165638</v>
+        <v>442.2514671656381</v>
       </c>
       <c r="L27" t="n">
-        <v>877.8609290664428</v>
+        <v>877.8609290664431</v>
       </c>
       <c r="M27" t="n">
         <v>1444.333139632157</v>
@@ -6358,58 +6358,58 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>443.9396799526552</v>
+        <v>443.9396799526548</v>
       </c>
       <c r="C28" t="n">
-        <v>376.4644177094918</v>
+        <v>376.4644177094915</v>
       </c>
       <c r="D28" t="n">
-        <v>325.5332318324109</v>
+        <v>325.5332318324106</v>
       </c>
       <c r="E28" t="n">
-        <v>275.6649248888862</v>
+        <v>275.6649248888858</v>
       </c>
       <c r="F28" t="n">
-        <v>225.3249772098196</v>
+        <v>225.3249772098193</v>
       </c>
       <c r="G28" t="n">
-        <v>158.8208693524577</v>
+        <v>158.8208693524574</v>
       </c>
       <c r="H28" t="n">
-        <v>104.0333400003412</v>
+        <v>104.033340000341</v>
       </c>
       <c r="I28" t="n">
-        <v>70.23900244928363</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J28" t="n">
-        <v>130.5359949807641</v>
+        <v>130.5359949807637</v>
       </c>
       <c r="K28" t="n">
-        <v>295.5549102843624</v>
+        <v>295.5549102843621</v>
       </c>
       <c r="L28" t="n">
-        <v>536.3317924463537</v>
+        <v>536.3317924463533</v>
       </c>
       <c r="M28" t="n">
-        <v>796.6728466785155</v>
+        <v>796.6728466785153</v>
       </c>
       <c r="N28" t="n">
         <v>1056.438377038233</v>
       </c>
       <c r="O28" t="n">
-        <v>1293.097402509019</v>
+        <v>1293.097402509018</v>
       </c>
       <c r="P28" t="n">
         <v>1488.764234223155</v>
       </c>
       <c r="Q28" t="n">
-        <v>1573.665686612332</v>
+        <v>1573.665686612331</v>
       </c>
       <c r="R28" t="n">
-        <v>1538.646621524218</v>
+        <v>1538.646621524217</v>
       </c>
       <c r="S28" t="n">
-        <v>1431.868906954463</v>
+        <v>1431.868906954462</v>
       </c>
       <c r="T28" t="n">
         <v>1302.005376841906</v>
@@ -6418,16 +6418,16 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V28" t="n">
-        <v>958.3762438513575</v>
+        <v>958.3762438513573</v>
       </c>
       <c r="W28" t="n">
-        <v>774.3605496639129</v>
+        <v>774.3605496639128</v>
       </c>
       <c r="X28" t="n">
-        <v>645.248792854445</v>
+        <v>645.2487928544449</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.3543413418786</v>
+        <v>525.3543413418784</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.171707740055</v>
+        <v>1810.171707740057</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.378656368019</v>
+        <v>1530.378656368021</v>
       </c>
       <c r="D29" t="n">
-        <v>1259.695398890399</v>
+        <v>1259.695398890401</v>
       </c>
       <c r="E29" t="n">
-        <v>967.0503862916626</v>
+        <v>967.0503862916639</v>
       </c>
       <c r="F29" t="n">
-        <v>655.0399028969891</v>
+        <v>655.0399028969899</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6895406772165</v>
+        <v>341.6895406772173</v>
       </c>
       <c r="H29" t="n">
-        <v>117.2860101122129</v>
+        <v>117.2860101122128</v>
       </c>
       <c r="I29" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J29" t="n">
-        <v>293.3310115116683</v>
+        <v>293.3310115116684</v>
       </c>
       <c r="K29" t="n">
-        <v>609.8852179627725</v>
+        <v>709.9933251827554</v>
       </c>
       <c r="L29" t="n">
-        <v>1098.097843785306</v>
+        <v>1152.676816822191</v>
       </c>
       <c r="M29" t="n">
-        <v>1696.926289792197</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N29" t="n">
-        <v>2282.553723882485</v>
+        <v>2337.132696919369</v>
       </c>
       <c r="O29" t="n">
         <v>2788.880974437191</v>
@@ -6485,28 +6485,28 @@
         <v>3462.941623279587</v>
       </c>
       <c r="R29" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S29" t="n">
         <v>3440.82870123094</v>
       </c>
       <c r="T29" t="n">
-        <v>3321.293506559798</v>
+        <v>3321.293506559799</v>
       </c>
       <c r="U29" t="n">
-        <v>3168.597910931419</v>
+        <v>3168.59791093142</v>
       </c>
       <c r="V29" t="n">
-        <v>2933.759344122517</v>
+        <v>2933.759344122518</v>
       </c>
       <c r="W29" t="n">
-        <v>2673.365121275274</v>
+        <v>2673.365121275276</v>
       </c>
       <c r="X29" t="n">
-        <v>2393.475688091924</v>
+        <v>2393.475688091925</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.074539962918</v>
+        <v>2102.07453996292</v>
       </c>
     </row>
     <row r="30">
@@ -6537,19 +6537,19 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I30" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J30" t="n">
-        <v>160.8596786661748</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="K30" t="n">
-        <v>442.251467165638</v>
+        <v>351.6307909487469</v>
       </c>
       <c r="L30" t="n">
-        <v>877.8609290664428</v>
+        <v>787.2402528495518</v>
       </c>
       <c r="M30" t="n">
-        <v>1444.333139632157</v>
+        <v>1353.712463415266</v>
       </c>
       <c r="N30" t="n">
         <v>1515.358872157957</v>
@@ -6598,40 +6598,40 @@
         <v>443.939679952655</v>
       </c>
       <c r="C31" t="n">
-        <v>376.4644177094916</v>
+        <v>376.4644177094917</v>
       </c>
       <c r="D31" t="n">
-        <v>325.5332318324107</v>
+        <v>325.5332318324108</v>
       </c>
       <c r="E31" t="n">
-        <v>275.6649248888859</v>
+        <v>275.664924888886</v>
       </c>
       <c r="F31" t="n">
-        <v>225.3249772098194</v>
+        <v>225.3249772098195</v>
       </c>
       <c r="G31" t="n">
-        <v>158.8208693524575</v>
+        <v>158.8208693524576</v>
       </c>
       <c r="H31" t="n">
         <v>104.033340000341</v>
       </c>
       <c r="I31" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J31" t="n">
-        <v>130.5359949807637</v>
+        <v>130.5359949807641</v>
       </c>
       <c r="K31" t="n">
-        <v>295.5549102843626</v>
+        <v>295.5549102843627</v>
       </c>
       <c r="L31" t="n">
-        <v>536.3317924463538</v>
+        <v>536.331792446354</v>
       </c>
       <c r="M31" t="n">
-        <v>796.6728466785156</v>
+        <v>796.6728466785157</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038234</v>
       </c>
       <c r="O31" t="n">
         <v>1293.097402509019</v>
@@ -6655,16 +6655,16 @@
         <v>1116.970840997778</v>
       </c>
       <c r="V31" t="n">
-        <v>958.3762438513573</v>
+        <v>958.3762438513575</v>
       </c>
       <c r="W31" t="n">
-        <v>774.3605496639128</v>
+        <v>774.3605496639129</v>
       </c>
       <c r="X31" t="n">
-        <v>645.2487928544449</v>
+        <v>645.2487928544451</v>
       </c>
       <c r="Y31" t="n">
-        <v>525.3543413418784</v>
+        <v>525.3543413418785</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1810.171707740054</v>
+        <v>1810.171707740055</v>
       </c>
       <c r="C32" t="n">
-        <v>1530.378656368018</v>
+        <v>1530.378656368019</v>
       </c>
       <c r="D32" t="n">
-        <v>1259.695398890397</v>
+        <v>1259.695398890398</v>
       </c>
       <c r="E32" t="n">
-        <v>967.0503862916607</v>
+        <v>967.0503862916617</v>
       </c>
       <c r="F32" t="n">
-        <v>655.0399028969875</v>
+        <v>655.0399028969882</v>
       </c>
       <c r="G32" t="n">
-        <v>341.6895406772151</v>
+        <v>341.6895406772156</v>
       </c>
       <c r="H32" t="n">
         <v>117.2860101122129</v>
       </c>
       <c r="I32" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J32" t="n">
-        <v>293.3310115116683</v>
+        <v>193.2229042916856</v>
       </c>
       <c r="K32" t="n">
-        <v>709.9933251827551</v>
+        <v>609.8852179627726</v>
       </c>
       <c r="L32" t="n">
-        <v>1252.784924042173</v>
+        <v>1152.676816822191</v>
       </c>
       <c r="M32" t="n">
-        <v>1851.613370049065</v>
+        <v>1751.505262829082</v>
       </c>
       <c r="N32" t="n">
-        <v>2437.240804139352</v>
+        <v>2282.553723882485</v>
       </c>
       <c r="O32" t="n">
-        <v>2943.568054694058</v>
+        <v>2788.880974437191</v>
       </c>
       <c r="P32" t="n">
-        <v>3258.109235457155</v>
+        <v>3203.53026242027</v>
       </c>
       <c r="Q32" t="n">
         <v>3462.941623279587</v>
       </c>
       <c r="R32" t="n">
-        <v>3511.950122464182</v>
+        <v>3511.950122464183</v>
       </c>
       <c r="S32" t="n">
         <v>3440.82870123094</v>
@@ -6731,19 +6731,19 @@
         <v>3321.293506559798</v>
       </c>
       <c r="U32" t="n">
-        <v>3168.597910931418</v>
+        <v>3168.597910931419</v>
       </c>
       <c r="V32" t="n">
         <v>2933.759344122516</v>
       </c>
       <c r="W32" t="n">
-        <v>2673.365121275273</v>
+        <v>2673.365121275274</v>
       </c>
       <c r="X32" t="n">
-        <v>2393.475688091922</v>
+        <v>2393.475688091924</v>
       </c>
       <c r="Y32" t="n">
-        <v>2102.074539962917</v>
+        <v>2102.074539962918</v>
       </c>
     </row>
     <row r="33">
@@ -6774,16 +6774,16 @@
         <v>127.3303875258035</v>
       </c>
       <c r="I33" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J33" t="n">
         <v>160.8596786661748</v>
       </c>
       <c r="K33" t="n">
-        <v>442.251467165638</v>
+        <v>442.2514671656381</v>
       </c>
       <c r="L33" t="n">
-        <v>877.8609290664428</v>
+        <v>877.8609290664431</v>
       </c>
       <c r="M33" t="n">
         <v>1444.333139632157</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>443.9396799526551</v>
+        <v>443.9396799526552</v>
       </c>
       <c r="C34" t="n">
-        <v>376.4644177094917</v>
+        <v>376.4644177094918</v>
       </c>
       <c r="D34" t="n">
-        <v>325.5332318324108</v>
+        <v>325.5332318324109</v>
       </c>
       <c r="E34" t="n">
         <v>275.664924888886</v>
@@ -6853,22 +6853,22 @@
         <v>104.033340000341</v>
       </c>
       <c r="I34" t="n">
-        <v>70.23900244928365</v>
+        <v>70.23900244928366</v>
       </c>
       <c r="J34" t="n">
         <v>130.535994980764</v>
       </c>
       <c r="K34" t="n">
-        <v>295.5549102843623</v>
+        <v>295.5549102843628</v>
       </c>
       <c r="L34" t="n">
-        <v>536.3317924463536</v>
+        <v>536.331792446354</v>
       </c>
       <c r="M34" t="n">
-        <v>796.6728466785154</v>
+        <v>796.6728466785158</v>
       </c>
       <c r="N34" t="n">
-        <v>1056.438377038233</v>
+        <v>1056.438377038234</v>
       </c>
       <c r="O34" t="n">
         <v>1293.097402509019</v>
@@ -6892,16 +6892,16 @@
         <v>1116.970840997779</v>
       </c>
       <c r="V34" t="n">
-        <v>958.3762438513576</v>
+        <v>958.3762438513577</v>
       </c>
       <c r="W34" t="n">
-        <v>774.360549663913</v>
+        <v>774.3605496639132</v>
       </c>
       <c r="X34" t="n">
-        <v>645.2487928544451</v>
+        <v>645.2487928544452</v>
       </c>
       <c r="Y34" t="n">
-        <v>525.3543413418786</v>
+        <v>525.3543413418787</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597503</v>
       </c>
       <c r="C35" t="n">
-        <v>1106.443993458708</v>
+        <v>1106.443993458709</v>
       </c>
       <c r="D35" t="n">
-        <v>906.8821572143304</v>
+        <v>906.8821572143318</v>
       </c>
       <c r="E35" t="n">
-        <v>685.3585658488361</v>
+        <v>685.3585658488373</v>
       </c>
       <c r="F35" t="n">
-        <v>444.4695036874052</v>
+        <v>444.4695036874064</v>
       </c>
       <c r="G35" t="n">
-        <v>202.2405627008748</v>
+        <v>202.2405627008749</v>
       </c>
       <c r="H35" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="I35" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J35" t="n">
         <v>171.9423552115157</v>
       </c>
       <c r="K35" t="n">
-        <v>488.4965616626199</v>
+        <v>488.49656166262</v>
       </c>
       <c r="L35" t="n">
-        <v>931.1800533020551</v>
+        <v>931.1800533020553</v>
       </c>
       <c r="M35" t="n">
         <v>1082.339763848232</v>
       </c>
       <c r="N35" t="n">
-        <v>1567.859090718536</v>
+        <v>1567.859090718537</v>
       </c>
       <c r="O35" t="n">
-        <v>1974.07823405326</v>
+        <v>1974.078234053261</v>
       </c>
       <c r="P35" t="n">
-        <v>2288.619414816356</v>
+        <v>2288.619414816357</v>
       </c>
       <c r="Q35" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="R35" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="S35" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="T35" t="n">
-        <v>2399.50889501779</v>
+        <v>2399.508895017791</v>
       </c>
       <c r="U35" t="n">
-        <v>2317.934720622653</v>
+        <v>2317.934720622655</v>
       </c>
       <c r="V35" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575046995</v>
       </c>
       <c r="W35" t="n">
-        <v>1964.944773432994</v>
+        <v>1964.944773432995</v>
       </c>
       <c r="X35" t="n">
-        <v>1756.176761482885</v>
+        <v>1756.176761482887</v>
       </c>
       <c r="Y35" t="n">
-        <v>1535.897034587122</v>
+        <v>1535.897034587124</v>
       </c>
     </row>
     <row r="36">
@@ -7011,40 +7011,40 @@
         <v>106.0498384456337</v>
       </c>
       <c r="I36" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="J36" t="n">
-        <v>139.579129586005</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="K36" t="n">
-        <v>139.579129586005</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="L36" t="n">
-        <v>575.1885914868099</v>
+        <v>484.5679152699188</v>
       </c>
       <c r="M36" t="n">
-        <v>1141.660802052524</v>
+        <v>1051.040125835633</v>
       </c>
       <c r="N36" t="n">
-        <v>1615.778457783572</v>
+        <v>1416.978673320067</v>
       </c>
       <c r="O36" t="n">
-        <v>2084.45086276002</v>
+        <v>1885.651078296516</v>
       </c>
       <c r="P36" t="n">
-        <v>2447.92266845569</v>
+        <v>2249.122883992186</v>
       </c>
       <c r="Q36" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="R36" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455691</v>
       </c>
       <c r="S36" t="n">
-        <v>2338.890912154576</v>
+        <v>2301.214514269518</v>
       </c>
       <c r="T36" t="n">
-        <v>2151.527634730053</v>
+        <v>2113.851236844995</v>
       </c>
       <c r="U36" t="n">
         <v>1933.054417296962</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.2870660659297</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="C37" t="n">
-        <v>265.2870660659297</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="D37" t="n">
-        <v>265.2870660659297</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="E37" t="n">
-        <v>113.2780518272485</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="F37" t="n">
-        <v>89.57789494497587</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="G37" t="n">
-        <v>89.57789494497587</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="H37" t="n">
-        <v>89.57789494497587</v>
+        <v>128.1272936826593</v>
       </c>
       <c r="I37" t="n">
         <v>89.57789494497587</v>
       </c>
       <c r="J37" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911383</v>
       </c>
       <c r="K37" t="n">
         <v>113.8692614527295</v>
@@ -7102,43 +7102,43 @@
         <v>254.538036394738</v>
       </c>
       <c r="M37" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069171</v>
       </c>
       <c r="N37" t="n">
-        <v>574.428406546652</v>
+        <v>574.4284065466521</v>
       </c>
       <c r="O37" t="n">
-        <v>710.9793247974544</v>
+        <v>710.9793247974545</v>
       </c>
       <c r="P37" t="n">
-        <v>806.5380492916083</v>
+        <v>806.5380492916086</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.0226377715529</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="R37" t="n">
-        <v>791.0226377715529</v>
+        <v>653.8628653882829</v>
       </c>
       <c r="S37" t="n">
-        <v>755.36634443504</v>
+        <v>618.20657205177</v>
       </c>
       <c r="T37" t="n">
-        <v>696.624235555726</v>
+        <v>559.4644631724559</v>
       </c>
       <c r="U37" t="n">
-        <v>582.711120944841</v>
+        <v>445.5513485615708</v>
       </c>
       <c r="V37" t="n">
-        <v>495.2379450316624</v>
+        <v>358.0781726483922</v>
       </c>
       <c r="W37" t="n">
-        <v>382.3436720774603</v>
+        <v>245.18389969419</v>
       </c>
       <c r="X37" t="n">
-        <v>324.3533365012348</v>
+        <v>187.1935641179645</v>
       </c>
       <c r="Y37" t="n">
-        <v>275.5803062219107</v>
+        <v>138.4205338386404</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1315.115623597503</v>
+        <v>1315.115623597502</v>
       </c>
       <c r="C38" t="n">
-        <v>1106.443993458709</v>
+        <v>1106.443993458708</v>
       </c>
       <c r="D38" t="n">
-        <v>906.8821572143315</v>
+        <v>906.8821572143302</v>
       </c>
       <c r="E38" t="n">
-        <v>685.3585658488372</v>
+        <v>685.3585658488357</v>
       </c>
       <c r="F38" t="n">
-        <v>444.4695036874064</v>
+        <v>444.4695036874048</v>
       </c>
       <c r="G38" t="n">
         <v>202.2405627008748</v>
       </c>
       <c r="H38" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="I38" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J38" t="n">
         <v>171.9423552115157</v>
       </c>
       <c r="K38" t="n">
-        <v>488.4965616626199</v>
+        <v>171.9423552115157</v>
       </c>
       <c r="L38" t="n">
-        <v>931.1800533020551</v>
+        <v>614.6258468509509</v>
       </c>
       <c r="M38" t="n">
-        <v>1082.339763848232</v>
+        <v>1113.34618563786</v>
       </c>
       <c r="N38" t="n">
-        <v>1567.859090718536</v>
+        <v>1567.859090718535</v>
       </c>
       <c r="O38" t="n">
-        <v>1974.07823405326</v>
+        <v>1974.078234053258</v>
       </c>
       <c r="P38" t="n">
-        <v>2288.619414816356</v>
+        <v>2288.619414816354</v>
       </c>
       <c r="Q38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="S38" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T38" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.508895017789</v>
       </c>
       <c r="U38" t="n">
-        <v>2317.934720622655</v>
+        <v>2317.934720622653</v>
       </c>
       <c r="V38" t="n">
-        <v>2154.217575046995</v>
+        <v>2154.217575046994</v>
       </c>
       <c r="W38" t="n">
-        <v>1964.944773432995</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X38" t="n">
-        <v>1756.176761482887</v>
+        <v>1756.176761482885</v>
       </c>
       <c r="Y38" t="n">
-        <v>1535.897034587123</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>836.385518966998</v>
+        <v>836.3855189669966</v>
       </c>
       <c r="C39" t="n">
-        <v>674.6818462079527</v>
+        <v>674.6818462079514</v>
       </c>
       <c r="D39" t="n">
-        <v>535.8432091981648</v>
+        <v>535.8432091981634</v>
       </c>
       <c r="E39" t="n">
-        <v>388.815199255036</v>
+        <v>388.8151992550347</v>
       </c>
       <c r="F39" t="n">
-        <v>254.1214012049104</v>
+        <v>254.121401204909</v>
       </c>
       <c r="G39" t="n">
-        <v>125.7208407508981</v>
+        <v>125.7208407508967</v>
       </c>
       <c r="H39" t="n">
         <v>106.0498384456337</v>
       </c>
       <c r="I39" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="J39" t="n">
         <v>139.579129586005</v>
@@ -7260,43 +7260,43 @@
         <v>856.5803799862731</v>
       </c>
       <c r="M39" t="n">
-        <v>856.5803799862731</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="N39" t="n">
-        <v>1416.978673320066</v>
+        <v>1423.052590551987</v>
       </c>
       <c r="O39" t="n">
-        <v>1885.651078296515</v>
+        <v>1891.724995528436</v>
       </c>
       <c r="P39" t="n">
-        <v>2249.122883992185</v>
+        <v>2255.196801224106</v>
       </c>
       <c r="Q39" t="n">
-        <v>2447.92266845569</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="R39" t="n">
-        <v>2408.499416583029</v>
+        <v>2408.499416583027</v>
       </c>
       <c r="S39" t="n">
-        <v>2261.791262396855</v>
+        <v>2261.791262396854</v>
       </c>
       <c r="T39" t="n">
-        <v>2074.427984972333</v>
+        <v>2074.427984972331</v>
       </c>
       <c r="U39" t="n">
-        <v>1855.954767539242</v>
+        <v>1855.95476753924</v>
       </c>
       <c r="V39" t="n">
-        <v>1627.559144987576</v>
+        <v>1627.559144987574</v>
       </c>
       <c r="W39" t="n">
-        <v>1386.243276220885</v>
+        <v>1386.243276220884</v>
       </c>
       <c r="X39" t="n">
-        <v>1188.32628809868</v>
+        <v>1188.326288098679</v>
       </c>
       <c r="Y39" t="n">
-        <v>995.804961748259</v>
+        <v>995.8049617482576</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>280.8024775859851</v>
+        <v>259.1938644832956</v>
       </c>
       <c r="C40" t="n">
-        <v>280.8024775859851</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="D40" t="n">
-        <v>280.8024775859851</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="E40" t="n">
-        <v>201.4391083433367</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="F40" t="n">
-        <v>48.9584533691138</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="G40" t="n">
-        <v>48.9584533691138</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="H40" t="n">
-        <v>48.9584533691138</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="I40" t="n">
-        <v>48.9584533691138</v>
+        <v>89.57789494497581</v>
       </c>
       <c r="J40" t="n">
-        <v>48.9584533691138</v>
+        <v>48.95845336911378</v>
       </c>
       <c r="K40" t="n">
         <v>113.8692614527295</v>
@@ -7339,7 +7339,7 @@
         <v>254.538036394738</v>
       </c>
       <c r="M40" t="n">
-        <v>414.770983406917</v>
+        <v>414.7709834069171</v>
       </c>
       <c r="N40" t="n">
         <v>574.428406546652</v>
@@ -7351,31 +7351,31 @@
         <v>806.5380492916083</v>
       </c>
       <c r="Q40" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715529</v>
       </c>
       <c r="R40" t="n">
-        <v>806.5380492916083</v>
+        <v>791.0226377715529</v>
       </c>
       <c r="S40" t="n">
-        <v>770.8817559550954</v>
+        <v>755.36634443504</v>
       </c>
       <c r="T40" t="n">
-        <v>712.1396470757815</v>
+        <v>696.624235555726</v>
       </c>
       <c r="U40" t="n">
-        <v>598.2265324648964</v>
+        <v>582.7111209448409</v>
       </c>
       <c r="V40" t="n">
-        <v>510.7533565517178</v>
+        <v>495.2379450316623</v>
       </c>
       <c r="W40" t="n">
-        <v>397.8590835975157</v>
+        <v>382.3436720774601</v>
       </c>
       <c r="X40" t="n">
-        <v>339.8687480212902</v>
+        <v>324.3533365012346</v>
       </c>
       <c r="Y40" t="n">
-        <v>291.0957177419661</v>
+        <v>275.5803062219104</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597503</v>
       </c>
       <c r="C41" t="n">
         <v>1106.443993458709</v>
       </c>
       <c r="D41" t="n">
-        <v>906.8821572143308</v>
+        <v>906.8821572143311</v>
       </c>
       <c r="E41" t="n">
-        <v>685.3585658488365</v>
+        <v>685.3585658488366</v>
       </c>
       <c r="F41" t="n">
         <v>444.4695036874057</v>
@@ -7409,25 +7409,25 @@
         <v>48.9584533691138</v>
       </c>
       <c r="J41" t="n">
-        <v>171.9423552115156</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K41" t="n">
-        <v>488.4965616626196</v>
+        <v>365.5126598202181</v>
       </c>
       <c r="L41" t="n">
-        <v>931.1800533020546</v>
+        <v>808.1961514596533</v>
       </c>
       <c r="M41" t="n">
-        <v>1082.339763848232</v>
+        <v>1306.916490246562</v>
       </c>
       <c r="N41" t="n">
-        <v>1567.859090718536</v>
+        <v>1792.435817116866</v>
       </c>
       <c r="O41" t="n">
-        <v>1974.07823405326</v>
+        <v>2198.65496045159</v>
       </c>
       <c r="P41" t="n">
-        <v>2288.619414816356</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q41" t="n">
         <v>2447.92266845569</v>
@@ -7445,7 +7445,7 @@
         <v>2317.934720622654</v>
       </c>
       <c r="V41" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575046995</v>
       </c>
       <c r="W41" t="n">
         <v>1964.944773432994</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>836.385518966998</v>
+        <v>875.8087708396599</v>
       </c>
       <c r="C42" t="n">
-        <v>674.6818462079527</v>
+        <v>714.1050980806147</v>
       </c>
       <c r="D42" t="n">
-        <v>535.8432091981648</v>
+        <v>575.2664610708267</v>
       </c>
       <c r="E42" t="n">
-        <v>388.815199255036</v>
+        <v>428.2384511276979</v>
       </c>
       <c r="F42" t="n">
-        <v>254.1214012049104</v>
+        <v>293.5446530775723</v>
       </c>
       <c r="G42" t="n">
-        <v>202.8204905086186</v>
+        <v>165.14409262356</v>
       </c>
       <c r="H42" t="n">
         <v>106.0498384456337</v>
@@ -7488,13 +7488,13 @@
         <v>48.9584533691138</v>
       </c>
       <c r="J42" t="n">
-        <v>139.5791295860049</v>
+        <v>139.579129586005</v>
       </c>
       <c r="K42" t="n">
-        <v>420.970918085468</v>
+        <v>420.9709180854683</v>
       </c>
       <c r="L42" t="n">
-        <v>856.5803799862726</v>
+        <v>856.5803799862732</v>
       </c>
       <c r="M42" t="n">
         <v>1423.052590551987</v>
@@ -7503,37 +7503,37 @@
         <v>1423.052590551987</v>
       </c>
       <c r="O42" t="n">
-        <v>1885.651078296515</v>
+        <v>1891.724995528436</v>
       </c>
       <c r="P42" t="n">
-        <v>2249.122883992185</v>
+        <v>2255.196801224106</v>
       </c>
       <c r="Q42" t="n">
         <v>2447.92266845569</v>
       </c>
       <c r="R42" t="n">
-        <v>2408.499416583029</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="S42" t="n">
-        <v>2261.791262396855</v>
+        <v>2301.214514269517</v>
       </c>
       <c r="T42" t="n">
-        <v>2074.427984972333</v>
+        <v>2113.851236844994</v>
       </c>
       <c r="U42" t="n">
-        <v>1855.954767539242</v>
+        <v>1895.378019411903</v>
       </c>
       <c r="V42" t="n">
-        <v>1627.559144987576</v>
+        <v>1666.982396860237</v>
       </c>
       <c r="W42" t="n">
-        <v>1386.243276220885</v>
+        <v>1425.666528093547</v>
       </c>
       <c r="X42" t="n">
-        <v>1188.32628809868</v>
+        <v>1227.749539971342</v>
       </c>
       <c r="Y42" t="n">
-        <v>995.804961748259</v>
+        <v>1035.228213620921</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>242.6497881172132</v>
+        <v>92.02493753753087</v>
       </c>
       <c r="C43" t="n">
-        <v>242.6497881172132</v>
+        <v>92.02493753753087</v>
       </c>
       <c r="D43" t="n">
-        <v>89.57789494497591</v>
+        <v>92.02493753753087</v>
       </c>
       <c r="E43" t="n">
-        <v>89.57789494497591</v>
+        <v>92.02493753753087</v>
       </c>
       <c r="F43" t="n">
-        <v>89.57789494497591</v>
+        <v>92.02493753753087</v>
       </c>
       <c r="G43" t="n">
-        <v>89.57789494497591</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="H43" t="n">
-        <v>89.57789494497591</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I43" t="n">
-        <v>89.57789494497591</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="J43" t="n">
         <v>48.9584533691138</v>
       </c>
       <c r="K43" t="n">
-        <v>113.8692614527294</v>
+        <v>113.8692614527295</v>
       </c>
       <c r="L43" t="n">
-        <v>254.5380363947378</v>
+        <v>254.538036394738</v>
       </c>
       <c r="M43" t="n">
-        <v>414.7709834069167</v>
+        <v>414.7709834069171</v>
       </c>
       <c r="N43" t="n">
-        <v>574.4284065466516</v>
+        <v>574.4284065466521</v>
       </c>
       <c r="O43" t="n">
-        <v>710.9793247974538</v>
+        <v>710.9793247974545</v>
       </c>
       <c r="P43" t="n">
-        <v>806.5380492916078</v>
+        <v>806.5380492916086</v>
       </c>
       <c r="Q43" t="n">
-        <v>791.0226377715524</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="R43" t="n">
-        <v>791.0226377715524</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="S43" t="n">
-        <v>755.3663444350394</v>
+        <v>582.1042159066415</v>
       </c>
       <c r="T43" t="n">
-        <v>696.6242355557255</v>
+        <v>523.3621070273275</v>
       </c>
       <c r="U43" t="n">
-        <v>582.7111209448404</v>
+        <v>409.4489924164424</v>
       </c>
       <c r="V43" t="n">
-        <v>495.2379450316618</v>
+        <v>321.9758165032638</v>
       </c>
       <c r="W43" t="n">
-        <v>382.3436720774597</v>
+        <v>209.0815435490616</v>
       </c>
       <c r="X43" t="n">
-        <v>324.3533365012343</v>
+        <v>151.0912079728361</v>
       </c>
       <c r="Y43" t="n">
-        <v>252.9430282731942</v>
+        <v>102.318177693512</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.115623597502</v>
+        <v>1315.115623597501</v>
       </c>
       <c r="C44" t="n">
-        <v>1106.443993458709</v>
+        <v>1106.443993458707</v>
       </c>
       <c r="D44" t="n">
-        <v>906.8821572143308</v>
+        <v>906.8821572143297</v>
       </c>
       <c r="E44" t="n">
-        <v>685.3585658488366</v>
+        <v>685.358565848835</v>
       </c>
       <c r="F44" t="n">
-        <v>444.4695036874059</v>
+        <v>444.4695036874045</v>
       </c>
       <c r="G44" t="n">
         <v>202.2405627008748</v>
@@ -7646,25 +7646,25 @@
         <v>48.9584533691138</v>
       </c>
       <c r="J44" t="n">
-        <v>171.9423552115156</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="K44" t="n">
-        <v>488.4965616626196</v>
+        <v>365.5126598202181</v>
       </c>
       <c r="L44" t="n">
-        <v>931.1800533020546</v>
+        <v>808.1961514596533</v>
       </c>
       <c r="M44" t="n">
-        <v>1082.339763848232</v>
+        <v>1306.916490246562</v>
       </c>
       <c r="N44" t="n">
-        <v>1567.859090718536</v>
+        <v>1792.435817116866</v>
       </c>
       <c r="O44" t="n">
-        <v>1974.07823405326</v>
+        <v>2198.65496045159</v>
       </c>
       <c r="P44" t="n">
-        <v>2288.619414816356</v>
+        <v>2447.92266845569</v>
       </c>
       <c r="Q44" t="n">
         <v>2447.92266845569</v>
@@ -7673,25 +7673,25 @@
         <v>2447.92266845569</v>
       </c>
       <c r="S44" t="n">
-        <v>2447.922668455691</v>
+        <v>2447.922668455689</v>
       </c>
       <c r="T44" t="n">
-        <v>2399.508895017791</v>
+        <v>2399.50889501779</v>
       </c>
       <c r="U44" t="n">
-        <v>2317.934720622654</v>
+        <v>2317.934720622653</v>
       </c>
       <c r="V44" t="n">
-        <v>2154.217575046994</v>
+        <v>2154.217575046993</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.944773432994</v>
+        <v>1964.944773432993</v>
       </c>
       <c r="X44" t="n">
-        <v>1756.176761482886</v>
+        <v>1756.176761482885</v>
       </c>
       <c r="Y44" t="n">
-        <v>1535.897034587123</v>
+        <v>1535.897034587122</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>913.4851687247186</v>
+        <v>836.385518966998</v>
       </c>
       <c r="C45" t="n">
-        <v>751.7814959656733</v>
+        <v>674.6818462079527</v>
       </c>
       <c r="D45" t="n">
-        <v>612.9428589558854</v>
+        <v>535.8432091981648</v>
       </c>
       <c r="E45" t="n">
-        <v>465.9148490127566</v>
+        <v>388.815199255036</v>
       </c>
       <c r="F45" t="n">
-        <v>331.2210509626309</v>
+        <v>254.1214012049104</v>
       </c>
       <c r="G45" t="n">
-        <v>202.8204905086186</v>
+        <v>125.7208407508981</v>
       </c>
       <c r="H45" t="n">
-        <v>106.0498384456337</v>
+        <v>48.9584533691138</v>
       </c>
       <c r="I45" t="n">
         <v>48.9584533691138</v>
       </c>
       <c r="J45" t="n">
-        <v>139.5791295860049</v>
+        <v>133.5052123540842</v>
       </c>
       <c r="K45" t="n">
-        <v>420.970918085468</v>
+        <v>414.8970008535474</v>
       </c>
       <c r="L45" t="n">
-        <v>856.5803799862726</v>
+        <v>850.5064627543524</v>
       </c>
       <c r="M45" t="n">
-        <v>1423.052590551987</v>
+        <v>1416.978673320066</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.052590551987</v>
+        <v>1416.978673320066</v>
       </c>
       <c r="O45" t="n">
-        <v>1891.724995528435</v>
+        <v>1885.651078296515</v>
       </c>
       <c r="P45" t="n">
-        <v>2255.196801224105</v>
+        <v>2249.122883992185</v>
       </c>
       <c r="Q45" t="n">
         <v>2447.92266845569</v>
@@ -7755,22 +7755,22 @@
         <v>2261.791262396855</v>
       </c>
       <c r="T45" t="n">
-        <v>2151.527634730053</v>
+        <v>2074.427984972333</v>
       </c>
       <c r="U45" t="n">
-        <v>1933.054417296962</v>
+        <v>1855.954767539242</v>
       </c>
       <c r="V45" t="n">
-        <v>1704.658794745296</v>
+        <v>1627.559144987576</v>
       </c>
       <c r="W45" t="n">
-        <v>1463.342925978606</v>
+        <v>1386.243276220885</v>
       </c>
       <c r="X45" t="n">
-        <v>1265.425937856401</v>
+        <v>1188.32628809868</v>
       </c>
       <c r="Y45" t="n">
-        <v>1072.90461150598</v>
+        <v>995.804961748259</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>48.9584533691138</v>
+        <v>201.4391083433367</v>
       </c>
       <c r="C46" t="n">
-        <v>48.9584533691138</v>
+        <v>201.4391083433367</v>
       </c>
       <c r="D46" t="n">
-        <v>48.9584533691138</v>
+        <v>201.4391083433367</v>
       </c>
       <c r="E46" t="n">
-        <v>48.9584533691138</v>
+        <v>201.4391083433367</v>
       </c>
       <c r="F46" t="n">
         <v>48.9584533691138</v>
@@ -7807,49 +7807,49 @@
         <v>48.9584533691138</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8692614527294</v>
+        <v>113.8692614527295</v>
       </c>
       <c r="L46" t="n">
-        <v>254.5380363947378</v>
+        <v>254.538036394738</v>
       </c>
       <c r="M46" t="n">
-        <v>414.7709834069167</v>
+        <v>414.7709834069171</v>
       </c>
       <c r="N46" t="n">
-        <v>574.4284065466516</v>
+        <v>574.4284065466521</v>
       </c>
       <c r="O46" t="n">
-        <v>710.9793247974538</v>
+        <v>710.9793247974545</v>
       </c>
       <c r="P46" t="n">
-        <v>806.5380492916078</v>
+        <v>806.5380492916086</v>
       </c>
       <c r="Q46" t="n">
-        <v>806.5380492916078</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="R46" t="n">
-        <v>806.5380492916078</v>
+        <v>791.0226377715531</v>
       </c>
       <c r="S46" t="n">
-        <v>770.8817559550948</v>
+        <v>691.5183867124474</v>
       </c>
       <c r="T46" t="n">
-        <v>712.1396470757809</v>
+        <v>632.7762778331335</v>
       </c>
       <c r="U46" t="n">
-        <v>424.964403936497</v>
+        <v>518.8631632222483</v>
       </c>
       <c r="V46" t="n">
-        <v>278.9093323348466</v>
+        <v>431.3899873090696</v>
       </c>
       <c r="W46" t="n">
-        <v>166.0150593806445</v>
+        <v>318.4957143548675</v>
       </c>
       <c r="X46" t="n">
-        <v>108.024723804419</v>
+        <v>260.505378778642</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.25169352509486</v>
+        <v>211.7323484993178</v>
       </c>
     </row>
   </sheetData>
@@ -8693,22 +8693,22 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>470.7430492978068</v>
+        <v>95.80453685554996</v>
       </c>
       <c r="M11" t="n">
-        <v>428.5799305228051</v>
+        <v>80.60967557410784</v>
       </c>
       <c r="N11" t="n">
-        <v>78.12743924032247</v>
+        <v>265.1853167755504</v>
       </c>
       <c r="O11" t="n">
-        <v>84.7178686367976</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8769,19 +8769,19 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>343.8048081163522</v>
+        <v>59.57067831891458</v>
       </c>
       <c r="L12" t="n">
-        <v>208.0281303889193</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M12" t="n">
-        <v>33.22243078842003</v>
+        <v>33.22243078841997</v>
       </c>
       <c r="N12" t="n">
-        <v>22.27645291330005</v>
+        <v>97.51730923846382</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5530578288247</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.5994362465223</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
-        <v>101.6373126545301</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L14" t="n">
-        <v>470.7430492978068</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M14" t="n">
         <v>455.5481880163647</v>
@@ -8939,13 +8939,13 @@
         <v>453.0659516825793</v>
       </c>
       <c r="O14" t="n">
-        <v>444.5073502733068</v>
+        <v>159.3688093826641</v>
       </c>
       <c r="P14" t="n">
         <v>100.6199562157594</v>
       </c>
       <c r="Q14" t="n">
-        <v>115.0971104444071</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9009,16 +9009,16 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>208.0281303889193</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M15" t="n">
-        <v>408.1609432306769</v>
+        <v>199.167669758403</v>
       </c>
       <c r="N15" t="n">
-        <v>22.27645291330005</v>
+        <v>22.27645291329999</v>
       </c>
       <c r="O15" t="n">
-        <v>38.61454538656794</v>
+        <v>38.61454538656788</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9167,16 +9167,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>282.8624143907781</v>
+        <v>282.8624143907779</v>
       </c>
       <c r="M17" t="n">
-        <v>80.60967557410791</v>
+        <v>80.60967557410784</v>
       </c>
       <c r="N17" t="n">
-        <v>78.12743924032247</v>
+        <v>78.12743924032239</v>
       </c>
       <c r="O17" t="n">
-        <v>459.6563810790544</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P17" t="n">
         <v>418.3383206229274</v>
@@ -9246,19 +9246,19 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>417.0214038611932</v>
+        <v>200.2328560230967</v>
       </c>
       <c r="M18" t="n">
-        <v>33.22243078842003</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N18" t="n">
-        <v>22.27645291330005</v>
+        <v>22.27645291329999</v>
       </c>
       <c r="O18" t="n">
-        <v>204.5597843565508</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P18" t="n">
-        <v>414.0015992319183</v>
+        <v>46.85836115548398</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9401,22 +9401,22 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>101.6373126545301</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>95.80453685555003</v>
+        <v>470.7430492978069</v>
       </c>
       <c r="M20" t="n">
-        <v>455.5481880163647</v>
+        <v>80.60967557410784</v>
       </c>
       <c r="N20" t="n">
-        <v>209.9985280212778</v>
+        <v>207.9651687404617</v>
       </c>
       <c r="O20" t="n">
-        <v>459.6563810790544</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P20" t="n">
-        <v>418.3383206229274</v>
+        <v>100.6199562157594</v>
       </c>
       <c r="Q20" t="n">
         <v>276.0094878578761</v>
@@ -9477,28 +9477,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>208.0281303889193</v>
+        <v>417.0214038611933</v>
       </c>
       <c r="M21" t="n">
-        <v>408.1609432306769</v>
+        <v>116.5730569933142</v>
       </c>
       <c r="N21" t="n">
-        <v>22.27645291330005</v>
+        <v>22.27645291329999</v>
       </c>
       <c r="O21" t="n">
-        <v>38.61454538656794</v>
+        <v>413.5530578288248</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215416</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9641,16 +9641,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L23" t="n">
-        <v>282.8624143907774</v>
+        <v>282.8624143907779</v>
       </c>
       <c r="M23" t="n">
-        <v>80.60967557410791</v>
+        <v>80.60967557410784</v>
       </c>
       <c r="N23" t="n">
-        <v>78.12743924032247</v>
+        <v>78.12743924032239</v>
       </c>
       <c r="O23" t="n">
-        <v>459.6563810790542</v>
+        <v>459.6563810790545</v>
       </c>
       <c r="P23" t="n">
         <v>418.3383206229274</v>
@@ -9714,28 +9714,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>417.021403861193</v>
+        <v>125.4335176238306</v>
       </c>
       <c r="M24" t="n">
-        <v>33.22243078842003</v>
+        <v>408.1609432306769</v>
       </c>
       <c r="N24" t="n">
-        <v>22.27645291330005</v>
+        <v>397.2149653555569</v>
       </c>
       <c r="O24" t="n">
-        <v>204.5597843565501</v>
+        <v>38.61454538656788</v>
       </c>
       <c r="P24" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>273.1004740566038</v>
+        <v>72.29261096215416</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>94.01961708077444</v>
+        <v>94.01961708077391</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>94.01961708077444</v>
+        <v>185.5556536634924</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10437,7 +10437,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>94.01961708077444</v>
+        <v>94.01961708077391</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10592,7 +10592,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M35" t="n">
-        <v>233.2962518833771</v>
+        <v>233.2962518833777</v>
       </c>
       <c r="N35" t="n">
         <v>568.5510017355793</v>
@@ -10662,10 +10662,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>72.38230935981312</v>
       </c>
       <c r="K36" t="n">
-        <v>59.57067831891462</v>
+        <v>59.57067831891458</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
@@ -10674,7 +10674,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>501.1831758739541</v>
+        <v>391.9113493622238</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>72.29261096215419</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10823,16 +10823,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>421.3890363425141</v>
+        <v>101.63731265453</v>
       </c>
       <c r="L38" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>233.2962518833771</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N38" t="n">
-        <v>568.5510017355793</v>
+        <v>537.2313837662567</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10908,10 +10908,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>33.22243078842003</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>588.3353350686469</v>
+        <v>22.27645291329999</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10920,7 +10920,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>266.9652041253693</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K41" t="n">
         <v>421.3890363425141</v>
@@ -11066,7 +11066,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M41" t="n">
-        <v>233.2962518833787</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N41" t="n">
         <v>568.5510017355793</v>
@@ -11075,10 +11075,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
-        <v>418.3383206229274</v>
+        <v>352.4055198562643</v>
       </c>
       <c r="Q41" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11148,16 +11148,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>22.27645291330023</v>
+        <v>22.27645291329999</v>
       </c>
       <c r="O42" t="n">
-        <v>505.8857451285161</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>266.9652041253706</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>95.59943624652226</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11303,7 +11303,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>233.2962518833787</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
         <v>568.5510017355793</v>
@@ -11312,10 +11312,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>418.3383206229274</v>
+        <v>352.4055198562643</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>115.097110444407</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11373,7 +11373,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>163.9183459425315</v>
+        <v>157.7830760112983</v>
       </c>
       <c r="K45" t="n">
         <v>343.8048081163522</v>
@@ -11385,7 +11385,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>22.27645291330023</v>
+        <v>22.27645291329999</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -11394,7 +11394,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>266.9652041253717</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23258,19 +23258,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>220.1004714210318</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>241.8426089909374</v>
       </c>
       <c r="F11" t="n">
         <v>261.0144250789145</v>
       </c>
       <c r="G11" t="n">
-        <v>262.3409051157628</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>88.29427303682994</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>184.6142276590013</v>
+        <v>184.6142276590012</v>
       </c>
       <c r="W11" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>229.2145853697048</v>
+        <v>98.7018428707815</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.1078504188222</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>229.1191673765039</v>
       </c>
       <c r="D14" t="n">
         <v>220.1004714210319</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>217.2655900329336</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>174.2835417775414</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>70.46388924261854</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>103.2926861902832</v>
       </c>
       <c r="V14" t="n">
-        <v>184.6142276590013</v>
+        <v>130.6974955820077</v>
       </c>
       <c r="W14" t="n">
-        <v>209.9143271369582</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>229.2145853697048</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>240.6111831659036</v>
       </c>
     </row>
     <row r="15">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1501379.270956012</v>
+        <v>1501379.270956011</v>
       </c>
     </row>
     <row r="15">
@@ -26320,22 +26320,22 @@
         <v>38293.83157536521</v>
       </c>
       <c r="E2" t="n">
-        <v>33464.33990598832</v>
+        <v>33464.33990598834</v>
       </c>
       <c r="F2" t="n">
-        <v>33464.33990598832</v>
+        <v>33464.33990598833</v>
       </c>
       <c r="G2" t="n">
+        <v>38381.20302470909</v>
+      </c>
+      <c r="H2" t="n">
         <v>38381.20302470908</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>38381.20302470909</v>
+      </c>
+      <c r="J2" t="n">
         <v>38381.20302470907</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38381.20302470907</v>
-      </c>
-      <c r="J2" t="n">
-        <v>38381.20302470908</v>
       </c>
       <c r="K2" t="n">
         <v>38381.20302470907</v>
@@ -26347,13 +26347,13 @@
         <v>38381.20302470908</v>
       </c>
       <c r="N2" t="n">
+        <v>38381.2030247091</v>
+      </c>
+      <c r="O2" t="n">
         <v>38381.20302470908</v>
       </c>
-      <c r="O2" t="n">
-        <v>38381.2030247091</v>
-      </c>
       <c r="P2" t="n">
-        <v>38381.20302470908</v>
+        <v>38381.20302470907</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>352409.0220339869</v>
+        <v>352409.022033987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76159.64004103032</v>
+        <v>76159.64004103023</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136355.5574477963</v>
+        <v>136355.5574477964</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76159.6400410303</v>
+        <v>76159.6400410302</v>
       </c>
       <c r="M3" t="n">
-        <v>83474.3682592051</v>
+        <v>83474.36825920522</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4735.800136733519</v>
+        <v>4735.800136733565</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,10 +26427,10 @@
         <v>303300.2911377927</v>
       </c>
       <c r="F4" t="n">
-        <v>303300.2911377926</v>
+        <v>303300.2911377927</v>
       </c>
       <c r="G4" t="n">
-        <v>359427.9628026185</v>
+        <v>359427.9628026184</v>
       </c>
       <c r="H4" t="n">
         <v>359427.9628026185</v>
@@ -26439,7 +26439,7 @@
         <v>359427.9628026184</v>
       </c>
       <c r="J4" t="n">
-        <v>348294.7670570373</v>
+        <v>348294.7670570374</v>
       </c>
       <c r="K4" t="n">
         <v>348294.7670570374</v>
@@ -26451,13 +26451,13 @@
         <v>349934.2306458565</v>
       </c>
       <c r="N4" t="n">
-        <v>349934.2306458565</v>
+        <v>349934.2306458564</v>
       </c>
       <c r="O4" t="n">
-        <v>349934.2306458566</v>
+        <v>349934.2306458564</v>
       </c>
       <c r="P4" t="n">
-        <v>349934.2306458566</v>
+        <v>349934.2306458564</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>38612.60241106099</v>
+        <v>38612.60241106101</v>
       </c>
       <c r="F5" t="n">
-        <v>38612.60241106099</v>
+        <v>38612.602411061</v>
       </c>
       <c r="G5" t="n">
         <v>46615.93338432272</v>
@@ -26488,28 +26488,28 @@
         <v>46615.93338432272</v>
       </c>
       <c r="I5" t="n">
-        <v>46615.93338432271</v>
+        <v>46615.93338432272</v>
       </c>
       <c r="J5" t="n">
-        <v>65173.09918276488</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="K5" t="n">
-        <v>65173.0991827649</v>
+        <v>65173.09918276491</v>
       </c>
       <c r="L5" t="n">
         <v>65173.0991827649</v>
       </c>
       <c r="M5" t="n">
+        <v>54919.19757587671</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54919.19757587668</v>
+      </c>
+      <c r="O5" t="n">
         <v>54919.1975758767</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>54919.1975758767</v>
-      </c>
-      <c r="O5" t="n">
-        <v>54919.19757587669</v>
-      </c>
-      <c r="P5" t="n">
-        <v>54919.19757587669</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-415090.1708813093</v>
+        <v>-415094.5394537764</v>
       </c>
       <c r="C6" t="n">
-        <v>-415090.1708813093</v>
+        <v>-415094.5394537764</v>
       </c>
       <c r="D6" t="n">
-        <v>-415090.1708813093</v>
+        <v>-415094.5394537764</v>
       </c>
       <c r="E6" t="n">
-        <v>-660857.5756768523</v>
+        <v>-661103.4188327884</v>
       </c>
       <c r="F6" t="n">
-        <v>-308448.5536428653</v>
+        <v>-308694.3967988014</v>
       </c>
       <c r="G6" t="n">
-        <v>-443822.3332032625</v>
+        <v>-443822.3332032622</v>
       </c>
       <c r="H6" t="n">
-        <v>-367662.6931622321</v>
+        <v>-367662.6931622322</v>
       </c>
       <c r="I6" t="n">
         <v>-367662.6931622321</v>
       </c>
       <c r="J6" t="n">
-        <v>-511442.2206628894</v>
+        <v>-511442.2206628897</v>
       </c>
       <c r="K6" t="n">
         <v>-375086.6632150933</v>
       </c>
       <c r="L6" t="n">
-        <v>-451246.3032561236</v>
+        <v>-451246.3032561234</v>
       </c>
       <c r="M6" t="n">
-        <v>-449946.5934562292</v>
+        <v>-449946.5934562293</v>
       </c>
       <c r="N6" t="n">
+        <v>-366472.2251970238</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-371208.0253337576</v>
+      </c>
+      <c r="P6" t="n">
         <v>-366472.2251970241</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-371208.0253337577</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-366472.2251970242</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>148.9952537040168</v>
       </c>
       <c r="G2" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H2" t="n">
         <v>244.1948037553047</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="F3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="G3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="H3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="I3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="J3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="K3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="L3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="M3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="N3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="O3" t="n">
-        <v>150.9384803178343</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="P3" t="n">
-        <v>150.9384803178343</v>
+        <v>150.9384803178347</v>
       </c>
     </row>
     <row r="4">
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="G4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="H4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="I4" t="n">
-        <v>374.9385124422566</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="J4" t="n">
-        <v>877.9875306160453</v>
+        <v>877.9875306160458</v>
       </c>
       <c r="K4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="L4" t="n">
-        <v>877.9875306160455</v>
+        <v>877.9875306160457</v>
       </c>
       <c r="M4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139228</v>
       </c>
       <c r="N4" t="n">
-        <v>611.9806671139226</v>
+        <v>611.9806671139222</v>
       </c>
       <c r="O4" t="n">
         <v>611.9806671139226</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>95.1995500512879</v>
+        <v>95.19955005128779</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.919750170916899</v>
+        <v>5.919750170916956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.19955005128789</v>
+        <v>95.19955005128774</v>
       </c>
       <c r="M2" t="n">
-        <v>70.41020702090999</v>
+        <v>70.41020702091006</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916899</v>
+        <v>5.919750170916956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150.9384803178346</v>
+        <v>150.9384803178347</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>503.0490181737887</v>
+        <v>503.0490181737889</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108.9316489401338</v>
+        <v>108.931648940134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>95.1995500512879</v>
+        <v>95.19955005128779</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.919750170916899</v>
+        <v>5.919750170916956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S11" t="n">
         <v>148.9952537040168</v>
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="D12" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>117.5695090098744</v>
       </c>
       <c r="F12" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>127.1165548494722</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.80294554235505</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.52047122575468</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,13 +28214,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T12" t="n">
-        <v>116.1769429411033</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28232,10 +28232,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>148.9952537040168</v>
       </c>
     </row>
     <row r="13">
@@ -28269,7 +28269,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J13" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.36025740485482</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R13" t="n">
         <v>135.7881746594375</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S14" t="n">
         <v>148.9952537040168</v>
@@ -28412,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>59.9131424678141</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,19 +28451,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>102.2703248858427</v>
+        <v>148.9952537040168</v>
       </c>
       <c r="U15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>148.9952537040168</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>148.9952537040168</v>
@@ -28506,7 +28506,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J16" t="n">
-        <v>40.21324716010344</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28527,7 +28527,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.36025740485482</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R16" t="n">
         <v>135.7881746594375</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="C17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="D17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="E17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="F17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="G17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="H17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="I17" t="n">
         <v>147.6958378085047</v>
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S17" t="n">
         <v>171.5295072431148</v>
@@ -28618,19 +28618,19 @@
         <v>219.4591429466353</v>
       </c>
       <c r="U17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="X17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="Y17" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
     </row>
     <row r="18">
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -28652,10 +28652,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>21.62556891529513</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H18" t="n">
         <v>95.80294554235505</v>
@@ -28688,13 +28688,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.1914778386174874</v>
       </c>
       <c r="S18" t="n">
         <v>145.2410726443114</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U18" t="n">
         <v>216.28848525876</v>
@@ -28722,10 +28722,10 @@
         <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9198098429365</v>
+        <v>15.28073632163429</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28737,7 +28737,7 @@
         <v>166.958367000993</v>
       </c>
       <c r="H19" t="n">
-        <v>48.22911373561736</v>
+        <v>155.3589542808002</v>
       </c>
       <c r="I19" t="n">
         <v>134.5756943977516</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>15.36025740485481</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T19" t="n">
         <v>229.6841950336356</v>
       </c>
       <c r="U19" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="V19" t="n">
-        <v>244.1948037553047</v>
+        <v>244.1948037553046</v>
       </c>
       <c r="W19" t="n">
-        <v>244.1948037553047</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S20" t="n">
         <v>171.5295072431148</v>
@@ -28886,19 +28886,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>38.52422903281257</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>95.80294554235505</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>33.64639525337793</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>39.0290193539351</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.2410726443114</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>185.4896446502776</v>
@@ -28940,7 +28940,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -28968,10 +28968,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.958367000993</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>155.3589542808002</v>
@@ -28980,7 +28980,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,13 +29004,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>112.9259738538706</v>
       </c>
       <c r="T22" t="n">
-        <v>215.2079840032425</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>244.1948037553047</v>
@@ -29019,7 +29019,7 @@
         <v>244.1948037553047</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>244.1948037553047</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S23" t="n">
         <v>171.5295072431148</v>
@@ -29129,7 +29129,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>48.89059383451638</v>
+        <v>127.1165548494722</v>
       </c>
       <c r="H24" t="n">
         <v>95.80294554235505</v>
@@ -29165,10 +29165,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>122.8183256626659</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4896446502776</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29180,10 +29180,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29196,10 +29196,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29217,7 +29217,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,19 +29241,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S25" t="n">
-        <v>152.7329952454739</v>
+        <v>206.8292376462626</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6841950336356</v>
       </c>
       <c r="U25" t="n">
         <v>244.1948037553047</v>
       </c>
       <c r="V25" t="n">
-        <v>244.1948037553047</v>
+        <v>103.8739285847907</v>
       </c>
       <c r="W25" t="n">
         <v>244.1948037553047</v>
@@ -29302,13 +29302,13 @@
         <v>101.1193002222048</v>
       </c>
       <c r="L26" t="n">
-        <v>45.98902442737102</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737176</v>
       </c>
       <c r="O26" t="n">
         <v>101.1193002222048</v>
@@ -29536,10 +29536,10 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="L29" t="n">
-        <v>45.98902442737204</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>101.1193002222048</v>
@@ -29548,7 +29548,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O29" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737193</v>
       </c>
       <c r="P29" t="n">
         <v>101.1193002222048</v>
@@ -29770,7 +29770,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="J32" t="n">
-        <v>101.1193002222048</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>101.1193002222048</v>
@@ -29782,16 +29782,16 @@
         <v>101.1193002222048</v>
       </c>
       <c r="N32" t="n">
-        <v>101.1193002222048</v>
+        <v>45.98902442737199</v>
       </c>
       <c r="O32" t="n">
         <v>101.1193002222048</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.98902442737173</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="R32" t="n">
         <v>101.1193002222048</v>
@@ -29931,7 +29931,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="K34" t="n">
-        <v>101.1193002222048</v>
+        <v>101.1193002222052</v>
       </c>
       <c r="L34" t="n">
         <v>101.1193002222048</v>
@@ -29943,7 +29943,7 @@
         <v>101.1193002222048</v>
       </c>
       <c r="O34" t="n">
-        <v>101.1193002222052</v>
+        <v>101.1193002222048</v>
       </c>
       <c r="P34" t="n">
         <v>101.1193002222048</v>
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S35" t="n">
         <v>171.5295072431148</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.0290193539351</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S36" t="n">
-        <v>37.29963390620807</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>37.29963390620716</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30150,10 +30150,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>127.4926931110308</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
         <v>166.958367000993</v>
@@ -30162,7 +30162,7 @@
         <v>155.3589542808002</v>
       </c>
       <c r="I37" t="n">
-        <v>134.5756943977516</v>
+        <v>96.41178964744498</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>135.7881746594375</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>171.5295072431148</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.61576569231049</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S38" t="n">
         <v>171.5295072431148</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.32865326014331</v>
+        <v>76.32865326014462</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>171.5295072431148</v>
+        <v>165.4972376763073</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>71.91918854607246</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>166.958367000993</v>
@@ -30402,7 +30402,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J40" t="n">
-        <v>40.21324716010344</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.36025740485482</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>135.7881746594375</v>
@@ -30478,7 +30478,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="I41" t="n">
-        <v>147.6958378085048</v>
+        <v>147.6958378085047</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.61576569231057</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S41" t="n">
         <v>171.5295072431148</v>
@@ -30551,10 +30551,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>76.32865326014331</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>37.29963390620797</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>39.02901935393508</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>166.958367000993</v>
+        <v>124.3225476742601</v>
       </c>
       <c r="H43" t="n">
         <v>155.3589542808002</v>
@@ -30639,7 +30639,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,10 +30663,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>135.7881746594376</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S43" t="n">
-        <v>171.5295072431148</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>171.5295072431148</v>
@@ -30684,7 +30684,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="Y43" t="n">
-        <v>149.1186020738861</v>
+        <v>171.5295072431148</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>171.5295072431148</v>
       </c>
       <c r="I44" t="n">
-        <v>147.6958378085048</v>
+        <v>147.6958378085047</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,7 +30742,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.61576569231057</v>
+        <v>51.61576569231046</v>
       </c>
       <c r="S44" t="n">
         <v>171.5295072431148</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>19.80818203438864</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.52047122575468</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>76.32865326014293</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30864,7 +30864,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.958367000993</v>
@@ -30876,7 +30876,7 @@
         <v>134.5756943977516</v>
       </c>
       <c r="J46" t="n">
-        <v>40.21324716010348</v>
+        <v>40.21324716010342</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,22 +30897,22 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.36025740485488</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>135.7881746594376</v>
+        <v>135.7881746594375</v>
       </c>
       <c r="S46" t="n">
-        <v>171.5295072431148</v>
+        <v>108.3200290977479</v>
       </c>
       <c r="T46" t="n">
         <v>171.5295072431148</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="V46" t="n">
-        <v>113.5334305115277</v>
+        <v>171.5295072431148</v>
       </c>
       <c r="W46" t="n">
         <v>171.5295072431148</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H11" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I11" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J11" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K11" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L11" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M11" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N11" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O11" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P11" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R11" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S11" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T11" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H12" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I12" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J12" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K12" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L12" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M12" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N12" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O12" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P12" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R12" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S12" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T12" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U12" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H13" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I13" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J13" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K13" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L13" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M13" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N13" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O13" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P13" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q13" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R13" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S13" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T13" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H14" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I14" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J14" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K14" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L14" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M14" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N14" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O14" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P14" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R14" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S14" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T14" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H15" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I15" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J15" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K15" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L15" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M15" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N15" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O15" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P15" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q15" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R15" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S15" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T15" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H16" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I16" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J16" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K16" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L16" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M16" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N16" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O16" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P16" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R16" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S16" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T16" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H17" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I17" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J17" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K17" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L17" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M17" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N17" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O17" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P17" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R17" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S17" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T17" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H18" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I18" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J18" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K18" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L18" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M18" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N18" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O18" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P18" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R18" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S18" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T18" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U18" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H19" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I19" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J19" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K19" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L19" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M19" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N19" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O19" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P19" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R19" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S19" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T19" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H20" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I20" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J20" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K20" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L20" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M20" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N20" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O20" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P20" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R20" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S20" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T20" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H21" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I21" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J21" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K21" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L21" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M21" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N21" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O21" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P21" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R21" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S21" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T21" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H22" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I22" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J22" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K22" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L22" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M22" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N22" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O22" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P22" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R22" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S22" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T22" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H23" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I23" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J23" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K23" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L23" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M23" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N23" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O23" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P23" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R23" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S23" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T23" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H24" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I24" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J24" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K24" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L24" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M24" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N24" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O24" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P24" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q24" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R24" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S24" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T24" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H25" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I25" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J25" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K25" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L25" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M25" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N25" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O25" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P25" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R25" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S25" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T25" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H26" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I26" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J26" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K26" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L26" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M26" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N26" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O26" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P26" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R26" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S26" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T26" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H27" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I27" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J27" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K27" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L27" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M27" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N27" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O27" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P27" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q27" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R27" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S27" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T27" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H28" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I28" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J28" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K28" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L28" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M28" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N28" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O28" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P28" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R28" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S28" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T28" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H29" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I29" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J29" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K29" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L29" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M29" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N29" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O29" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P29" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R29" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S29" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T29" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H30" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I30" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J30" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K30" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L30" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M30" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N30" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O30" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P30" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q30" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R30" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S30" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T30" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H31" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I31" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J31" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K31" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L31" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M31" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N31" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O31" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P31" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R31" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S31" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T31" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H32" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I32" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J32" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K32" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L32" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M32" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N32" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O32" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P32" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R32" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S32" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T32" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U32" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H33" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I33" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J33" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K33" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L33" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M33" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N33" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O33" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P33" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q33" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R33" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S33" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T33" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U33" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H34" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I34" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J34" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K34" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L34" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M34" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N34" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O34" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P34" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R34" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S34" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T34" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H35" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I35" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J35" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K35" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L35" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M35" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N35" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O35" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P35" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R35" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S35" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T35" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U35" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H36" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I36" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J36" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K36" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L36" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M36" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N36" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O36" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P36" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q36" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R36" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S36" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T36" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U36" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H37" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I37" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J37" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K37" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L37" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M37" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N37" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O37" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P37" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R37" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S37" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T37" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6067878605742091</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H38" t="n">
-        <v>6.214266177105621</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I38" t="n">
-        <v>23.39318899478722</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J38" t="n">
-        <v>51.50036118141033</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K38" t="n">
-        <v>77.18569131951662</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L38" t="n">
-        <v>95.75567530756459</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M38" t="n">
         <v>106.5466389230512</v>
       </c>
       <c r="N38" t="n">
-        <v>108.2706749319076</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O38" t="n">
         <v>102.2369281433229</v>
       </c>
       <c r="P38" t="n">
-        <v>87.25685283539705</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.52626257858317</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R38" t="n">
-        <v>38.11613794679469</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S38" t="n">
-        <v>13.8271783728348</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T38" t="n">
-        <v>2.656213859663602</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04854302884593672</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.3246601274760971</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H39" t="n">
-        <v>3.135533336413886</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I39" t="n">
-        <v>11.17799123108492</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J39" t="n">
-        <v>30.67326230685355</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K39" t="n">
-        <v>52.42549084775206</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L39" t="n">
-        <v>70.49254215221136</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M39" t="n">
-        <v>82.26147177321987</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N39" t="n">
-        <v>84.43868815440827</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O39" t="n">
-        <v>77.24490322454317</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P39" t="n">
-        <v>61.99584486865929</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q39" t="n">
-        <v>41.4425804827383</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R39" t="n">
-        <v>20.15740686206857</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S39" t="n">
-        <v>6.030419473075748</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T39" t="n">
-        <v>1.308608145397075</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02135921891290114</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2721841448354395</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H40" t="n">
-        <v>2.419964487718727</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I40" t="n">
-        <v>8.185319555596672</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J40" t="n">
-        <v>19.24341903986557</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K40" t="n">
-        <v>31.62284882724469</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L40" t="n">
-        <v>40.4663591330798</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M40" t="n">
-        <v>42.66610190361347</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N40" t="n">
-        <v>41.65159736377232</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O40" t="n">
-        <v>38.47199167183104</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P40" t="n">
-        <v>32.91943511718805</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.79171052799303</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R40" t="n">
-        <v>12.23838891232803</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S40" t="n">
-        <v>4.743427324086703</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T40" t="n">
-        <v>1.162968618842332</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0148464079001149</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6067878605742077</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H41" t="n">
-        <v>6.214266177105607</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I41" t="n">
-        <v>23.39318899478717</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J41" t="n">
-        <v>51.50036118141021</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K41" t="n">
-        <v>77.18569131951644</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L41" t="n">
-        <v>95.75567530756437</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M41" t="n">
-        <v>106.5466389230509</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N41" t="n">
-        <v>108.2706749319074</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O41" t="n">
-        <v>102.2369281433226</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P41" t="n">
-        <v>87.25685283539686</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.52626257858302</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R41" t="n">
-        <v>38.11613794679461</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S41" t="n">
-        <v>13.82717837283477</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T41" t="n">
-        <v>2.656213859663596</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04854302884593661</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3246601274760964</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H42" t="n">
-        <v>3.135533336413879</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I42" t="n">
-        <v>11.1779912310849</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J42" t="n">
-        <v>30.67326230685348</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K42" t="n">
-        <v>52.42549084775194</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L42" t="n">
-        <v>70.4925421522112</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M42" t="n">
-        <v>82.26147177321968</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N42" t="n">
-        <v>84.43868815440808</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O42" t="n">
-        <v>77.24490322454299</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P42" t="n">
-        <v>61.99584486865915</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q42" t="n">
-        <v>41.44258048273821</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R42" t="n">
-        <v>20.15740686206852</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S42" t="n">
-        <v>6.030419473075734</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T42" t="n">
-        <v>1.308608145397072</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U42" t="n">
-        <v>0.02135921891290109</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2721841448354388</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H43" t="n">
-        <v>2.419964487718722</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I43" t="n">
-        <v>8.185319555596655</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J43" t="n">
-        <v>19.24341903986553</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K43" t="n">
-        <v>31.62284882724462</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L43" t="n">
-        <v>40.46635913307971</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M43" t="n">
-        <v>42.66610190361338</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N43" t="n">
-        <v>41.65159736377223</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O43" t="n">
-        <v>38.47199167183096</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P43" t="n">
-        <v>32.91943511718797</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.79171052799298</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R43" t="n">
-        <v>12.238388912328</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S43" t="n">
-        <v>4.743427324086692</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T43" t="n">
-        <v>1.162968618842329</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01484640790011486</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6067878605742077</v>
+        <v>0.6067878605742095</v>
       </c>
       <c r="H44" t="n">
-        <v>6.214266177105607</v>
+        <v>6.214266177105626</v>
       </c>
       <c r="I44" t="n">
-        <v>23.39318899478717</v>
+        <v>23.39318899478724</v>
       </c>
       <c r="J44" t="n">
-        <v>51.50036118141021</v>
+        <v>51.50036118141037</v>
       </c>
       <c r="K44" t="n">
-        <v>77.18569131951644</v>
+        <v>77.18569131951668</v>
       </c>
       <c r="L44" t="n">
-        <v>95.75567530756437</v>
+        <v>95.75567530756466</v>
       </c>
       <c r="M44" t="n">
-        <v>106.5466389230509</v>
+        <v>106.5466389230512</v>
       </c>
       <c r="N44" t="n">
-        <v>108.2706749319074</v>
+        <v>108.2706749319077</v>
       </c>
       <c r="O44" t="n">
-        <v>102.2369281433226</v>
+        <v>102.2369281433229</v>
       </c>
       <c r="P44" t="n">
-        <v>87.25685283539686</v>
+        <v>87.25685283539713</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.52626257858302</v>
+        <v>65.52626257858321</v>
       </c>
       <c r="R44" t="n">
-        <v>38.11613794679461</v>
+        <v>38.11613794679472</v>
       </c>
       <c r="S44" t="n">
-        <v>13.82717837283477</v>
+        <v>13.82717837283481</v>
       </c>
       <c r="T44" t="n">
-        <v>2.656213859663596</v>
+        <v>2.656213859663604</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04854302884593661</v>
+        <v>0.04854302884593675</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3246601274760964</v>
+        <v>0.3246601274760974</v>
       </c>
       <c r="H45" t="n">
-        <v>3.135533336413879</v>
+        <v>3.135533336413888</v>
       </c>
       <c r="I45" t="n">
-        <v>11.1779912310849</v>
+        <v>11.17799123108493</v>
       </c>
       <c r="J45" t="n">
-        <v>30.67326230685348</v>
+        <v>30.67326230685357</v>
       </c>
       <c r="K45" t="n">
-        <v>52.42549084775194</v>
+        <v>52.42549084775209</v>
       </c>
       <c r="L45" t="n">
-        <v>70.4925421522112</v>
+        <v>70.49254215221141</v>
       </c>
       <c r="M45" t="n">
-        <v>82.26147177321968</v>
+        <v>82.26147177321992</v>
       </c>
       <c r="N45" t="n">
-        <v>84.43868815440808</v>
+        <v>84.43868815440833</v>
       </c>
       <c r="O45" t="n">
-        <v>77.24490322454299</v>
+        <v>77.24490322454322</v>
       </c>
       <c r="P45" t="n">
-        <v>61.99584486865915</v>
+        <v>61.99584486865934</v>
       </c>
       <c r="Q45" t="n">
-        <v>41.44258048273821</v>
+        <v>41.44258048273833</v>
       </c>
       <c r="R45" t="n">
-        <v>20.15740686206852</v>
+        <v>20.15740686206858</v>
       </c>
       <c r="S45" t="n">
-        <v>6.030419473075734</v>
+        <v>6.030419473075752</v>
       </c>
       <c r="T45" t="n">
-        <v>1.308608145397072</v>
+        <v>1.308608145397076</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02135921891290109</v>
+        <v>0.02135921891290115</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2721841448354388</v>
+        <v>0.2721841448354397</v>
       </c>
       <c r="H46" t="n">
-        <v>2.419964487718722</v>
+        <v>2.419964487718729</v>
       </c>
       <c r="I46" t="n">
-        <v>8.185319555596655</v>
+        <v>8.18531955559668</v>
       </c>
       <c r="J46" t="n">
-        <v>19.24341903986553</v>
+        <v>19.24341903986558</v>
       </c>
       <c r="K46" t="n">
-        <v>31.62284882724462</v>
+        <v>31.62284882724471</v>
       </c>
       <c r="L46" t="n">
-        <v>40.46635913307971</v>
+        <v>40.46635913307983</v>
       </c>
       <c r="M46" t="n">
-        <v>42.66610190361338</v>
+        <v>42.66610190361351</v>
       </c>
       <c r="N46" t="n">
-        <v>41.65159736377223</v>
+        <v>41.65159736377235</v>
       </c>
       <c r="O46" t="n">
-        <v>38.47199167183096</v>
+        <v>38.47199167183107</v>
       </c>
       <c r="P46" t="n">
-        <v>32.91943511718797</v>
+        <v>32.91943511718807</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.79171052799298</v>
+        <v>22.79171052799305</v>
       </c>
       <c r="R46" t="n">
-        <v>12.238388912328</v>
+        <v>12.23838891232804</v>
       </c>
       <c r="S46" t="n">
-        <v>4.743427324086692</v>
+        <v>4.743427324086706</v>
       </c>
       <c r="T46" t="n">
-        <v>1.162968618842329</v>
+        <v>1.162968618842333</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01484640790011486</v>
+        <v>0.01484640790011491</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.2261634771736</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K11" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L11" t="n">
-        <v>374.9385124422568</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>347.9702549486972</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>187.057877535228</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P11" t="n">
-        <v>317.718364407168</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>91.53603658271834</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K12" t="n">
-        <v>284.2341297974376</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>165.9452389699829</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>75.24085632516383</v>
       </c>
       <c r="O12" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P12" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L13" t="n">
         <v>142.0896716585945</v>
@@ -35583,7 +35583,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P13" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M14" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N14" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O14" t="n">
-        <v>359.7894816365092</v>
+        <v>74.65094074586656</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.53603658271834</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K15" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L15" t="n">
-        <v>165.9452389699829</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M15" t="n">
-        <v>374.9385124422568</v>
+        <v>165.9452389699831</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>367.1432380764343</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L16" t="n">
         <v>142.0896716585945</v>
@@ -35820,7 +35820,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P16" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>124.2261634771736</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K17" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L17" t="n">
-        <v>187.0578775352281</v>
+        <v>187.057877535228</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35896,13 +35896,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P17" t="n">
-        <v>317.718364407168</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q17" t="n">
-        <v>160.912377413469</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.53603658271834</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K18" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L18" t="n">
-        <v>374.9385124422568</v>
+        <v>158.1499646041603</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>165.9452389699828</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P18" t="n">
-        <v>367.1432380764343</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L19" t="n">
         <v>142.0896716585945</v>
@@ -36057,7 +36057,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P19" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>124.2261634771736</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M20" t="n">
-        <v>374.9385124422568</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>131.8710887809554</v>
+        <v>129.8377295001393</v>
       </c>
       <c r="O20" t="n">
-        <v>374.9385124422568</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P20" t="n">
-        <v>317.718364407168</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>160.912377413469</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>91.53603658271834</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L21" t="n">
-        <v>165.9452389699829</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="M21" t="n">
-        <v>374.9385124422568</v>
+        <v>83.35062620489423</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P21" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L22" t="n">
         <v>142.0896716585945</v>
@@ -36294,7 +36294,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P22" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>124.2261634771736</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K23" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L23" t="n">
-        <v>187.0578775352274</v>
+        <v>187.057877535228</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -36370,13 +36370,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>374.9385124422566</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="P23" t="n">
-        <v>317.718364407168</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q23" t="n">
-        <v>160.912377413469</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>91.53603658271834</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>284.2341297974376</v>
       </c>
       <c r="L24" t="n">
-        <v>374.9385124422566</v>
+        <v>83.35062620489423</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>374.9385124422569</v>
       </c>
       <c r="O24" t="n">
-        <v>165.9452389699821</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.8078630944496</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L25" t="n">
         <v>142.0896716585945</v>
@@ -36531,7 +36531,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P25" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>225.3454636993784</v>
+        <v>225.3454636993785</v>
       </c>
       <c r="K26" t="n">
         <v>420.8710239101889</v>
       </c>
       <c r="L26" t="n">
-        <v>493.1440664874065</v>
+        <v>548.2743422822404</v>
       </c>
       <c r="M26" t="n">
         <v>503.7579179665744</v>
       </c>
       <c r="N26" t="n">
-        <v>591.5428627174617</v>
+        <v>536.4125869226287</v>
       </c>
       <c r="O26" t="n">
-        <v>511.4416672269761</v>
+        <v>511.4416672269762</v>
       </c>
       <c r="P26" t="n">
-        <v>418.8376646293728</v>
+        <v>418.8376646293729</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.0316776356738</v>
+        <v>262.0316776356739</v>
       </c>
       <c r="R26" t="n">
-        <v>49.50353452989431</v>
+        <v>49.50353452989434</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.53603658271834</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K27" t="n">
         <v>284.2341297974376</v>
@@ -36683,16 +36683,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N27" t="n">
-        <v>71.74316416747439</v>
+        <v>71.74316416747392</v>
       </c>
       <c r="O27" t="n">
-        <v>473.4064696731804</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P27" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q27" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>60.90605306210136</v>
+        <v>60.90605306210138</v>
       </c>
       <c r="K28" t="n">
         <v>166.6857730339378</v>
@@ -36771,7 +36771,7 @@
         <v>197.6432643577139</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281734999</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>225.3454636993784</v>
+        <v>225.3454636993785</v>
       </c>
       <c r="K29" t="n">
-        <v>319.7517236879841</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L29" t="n">
-        <v>493.1440664874075</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M29" t="n">
-        <v>604.8772181887791</v>
+        <v>604.8772181887792</v>
       </c>
       <c r="N29" t="n">
         <v>591.5428627174617</v>
       </c>
       <c r="O29" t="n">
-        <v>511.4416672269761</v>
+        <v>456.3113914321433</v>
       </c>
       <c r="P29" t="n">
-        <v>418.8376646293728</v>
+        <v>418.8376646293729</v>
       </c>
       <c r="Q29" t="n">
-        <v>262.0316776356738</v>
+        <v>262.0316776356739</v>
       </c>
       <c r="R29" t="n">
-        <v>49.50353452989431</v>
+        <v>49.50353452989435</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>91.53603658271834</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>284.2341297974376</v>
@@ -36920,16 +36920,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N30" t="n">
-        <v>71.74316416747439</v>
+        <v>163.2792007501924</v>
       </c>
       <c r="O30" t="n">
-        <v>473.4064696731804</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P30" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q30" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>60.90605306210136</v>
+        <v>60.90605306210139</v>
       </c>
       <c r="K31" t="n">
         <v>166.6857730339378</v>
@@ -36996,7 +36996,7 @@
         <v>243.2089718807993</v>
       </c>
       <c r="M31" t="n">
-        <v>262.9707618506685</v>
+        <v>262.9707618506686</v>
       </c>
       <c r="N31" t="n">
         <v>262.3894246057755</v>
@@ -37008,7 +37008,7 @@
         <v>197.6432643577139</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.75904281734998</v>
+        <v>85.75904281735001</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>225.3454636993784</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K32" t="n">
-        <v>420.8710239101888</v>
+        <v>420.8710239101889</v>
       </c>
       <c r="L32" t="n">
         <v>548.2743422822404</v>
@@ -37078,19 +37078,19 @@
         <v>604.8772181887791</v>
       </c>
       <c r="N32" t="n">
-        <v>591.5428627174617</v>
+        <v>536.412586922629</v>
       </c>
       <c r="O32" t="n">
         <v>511.4416672269761</v>
       </c>
       <c r="P32" t="n">
-        <v>317.718364407168</v>
+        <v>418.8376646293729</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.9014018408407</v>
+        <v>262.0316776356739</v>
       </c>
       <c r="R32" t="n">
-        <v>49.5035345298943</v>
+        <v>49.50353452989431</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>91.53603658271834</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K33" t="n">
         <v>284.2341297974376</v>
@@ -37157,16 +37157,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N33" t="n">
-        <v>71.74316416747439</v>
+        <v>71.74316416747392</v>
       </c>
       <c r="O33" t="n">
-        <v>473.4064696731804</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P33" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.8078630944496</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>60.90605306210135</v>
       </c>
       <c r="K34" t="n">
-        <v>166.6857730339378</v>
+        <v>166.6857730339382</v>
       </c>
       <c r="L34" t="n">
-        <v>243.2089718807992</v>
+        <v>243.2089718807993</v>
       </c>
       <c r="M34" t="n">
         <v>262.9707618506685</v>
@@ -37239,10 +37239,10 @@
         <v>262.3894246057754</v>
       </c>
       <c r="O34" t="n">
-        <v>239.0495206775612</v>
+        <v>239.0495206775608</v>
       </c>
       <c r="P34" t="n">
-        <v>197.6432643577138</v>
+        <v>197.6432643577139</v>
       </c>
       <c r="Q34" t="n">
         <v>85.75904281734996</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>124.2261634771736</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K35" t="n">
         <v>319.7517236879841</v>
       </c>
       <c r="L35" t="n">
-        <v>447.1550420600355</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M35" t="n">
-        <v>152.6865763092692</v>
+        <v>152.6865763092699</v>
       </c>
       <c r="N35" t="n">
-        <v>490.4235624952569</v>
+        <v>490.423562495257</v>
       </c>
       <c r="O35" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P35" t="n">
-        <v>317.718364407168</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q35" t="n">
-        <v>160.912377413469</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>91.53603658271834</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>572.1941520865799</v>
       </c>
       <c r="N36" t="n">
-        <v>478.9067229606541</v>
+        <v>369.6348964489238</v>
       </c>
       <c r="O36" t="n">
-        <v>473.4064696731804</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P36" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L37" t="n">
         <v>142.0896716585945</v>
@@ -37479,7 +37479,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P37" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>124.2261634771736</v>
+        <v>124.2261634771737</v>
       </c>
       <c r="K38" t="n">
-        <v>319.7517236879841</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>447.1550420600355</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M38" t="n">
-        <v>152.6865763092692</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N38" t="n">
-        <v>490.4235624952569</v>
+        <v>459.1039445259343</v>
       </c>
       <c r="O38" t="n">
-        <v>410.3223670047713</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P38" t="n">
-        <v>317.718364407168</v>
+        <v>317.7183644071681</v>
       </c>
       <c r="Q38" t="n">
-        <v>160.912377413469</v>
+        <v>160.9123774134691</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>91.53603658271834</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K39" t="n">
         <v>284.2341297974376</v>
@@ -37628,19 +37628,19 @@
         <v>440.0095574755605</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N39" t="n">
-        <v>566.0588821553469</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>473.4064696731804</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P39" t="n">
         <v>367.1432380764343</v>
       </c>
       <c r="Q39" t="n">
-        <v>200.8078630944496</v>
+        <v>194.6725931632151</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>65.56647281173298</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L40" t="n">
         <v>142.0896716585945</v>
@@ -37716,7 +37716,7 @@
         <v>137.930220455356</v>
       </c>
       <c r="P40" t="n">
-        <v>96.52396413550906</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>124.2261634771735</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>319.7517236879839</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L41" t="n">
-        <v>447.1550420600353</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M41" t="n">
-        <v>152.6865763092705</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N41" t="n">
-        <v>490.4235624952566</v>
+        <v>490.423562495257</v>
       </c>
       <c r="O41" t="n">
-        <v>410.3223670047711</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P41" t="n">
-        <v>317.7183644071678</v>
+        <v>251.7855636405049</v>
       </c>
       <c r="Q41" t="n">
-        <v>160.9123774134689</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>91.53603658271828</v>
+        <v>91.53603658271837</v>
       </c>
       <c r="K42" t="n">
-        <v>284.2341297974374</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L42" t="n">
-        <v>440.0095574755603</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M42" t="n">
-        <v>572.1941520865797</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>467.271199741948</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P42" t="n">
-        <v>367.1432380764342</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.8078630944495</v>
+        <v>194.6725931632164</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>65.56647281173292</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L43" t="n">
-        <v>142.0896716585943</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M43" t="n">
-        <v>161.8514616284636</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N43" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O43" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P43" t="n">
-        <v>96.52396413550898</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>124.2261634771735</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>319.7517236879839</v>
+        <v>319.7517236879841</v>
       </c>
       <c r="L44" t="n">
-        <v>447.1550420600353</v>
+        <v>447.1550420600356</v>
       </c>
       <c r="M44" t="n">
-        <v>152.6865763092705</v>
+        <v>503.7579179665744</v>
       </c>
       <c r="N44" t="n">
-        <v>490.4235624952566</v>
+        <v>490.423562495257</v>
       </c>
       <c r="O44" t="n">
-        <v>410.3223670047711</v>
+        <v>410.3223670047714</v>
       </c>
       <c r="P44" t="n">
-        <v>317.7183644071678</v>
+        <v>251.7855636405049</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.9123774134689</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>91.53603658271828</v>
+        <v>85.4007666514852</v>
       </c>
       <c r="K45" t="n">
-        <v>284.2341297974374</v>
+        <v>284.2341297974376</v>
       </c>
       <c r="L45" t="n">
-        <v>440.0095574755603</v>
+        <v>440.0095574755605</v>
       </c>
       <c r="M45" t="n">
-        <v>572.1941520865797</v>
+        <v>572.1941520865799</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>473.4064696731803</v>
+        <v>473.4064696731805</v>
       </c>
       <c r="P45" t="n">
-        <v>367.1432380764342</v>
+        <v>367.1432380764343</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.6725931632174</v>
+        <v>200.8078630944497</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>65.56647281173292</v>
+        <v>65.56647281173301</v>
       </c>
       <c r="L46" t="n">
-        <v>142.0896716585943</v>
+        <v>142.0896716585945</v>
       </c>
       <c r="M46" t="n">
-        <v>161.8514616284636</v>
+        <v>161.8514616284637</v>
       </c>
       <c r="N46" t="n">
-        <v>161.2701243835706</v>
+        <v>161.2701243835707</v>
       </c>
       <c r="O46" t="n">
-        <v>137.9302204553559</v>
+        <v>137.930220455356</v>
       </c>
       <c r="P46" t="n">
-        <v>96.52396413550898</v>
+        <v>96.52396413550908</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
